--- a/Design/s_数值设定numerical/3_任务.xlsx
+++ b/Design/s_数值设定numerical/3_任务.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\Design\s_数值设定numerical\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6576B702-8396-4058-A776-08ACA9404FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5865" yWindow="4590" windowWidth="28800" windowHeight="7830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="18450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="任务类型" sheetId="1" r:id="rId1"/>
@@ -20,145 +14,447 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>难度系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话&amp;送货</t>
+  </si>
+  <si>
+    <t>杀怪（或收集道具）</t>
+  </si>
+  <si>
+    <t>杀BOSS怪</t>
   </si>
   <si>
     <t>副本杀怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>副本杀BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀BOSS怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀怪（或收集道具）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话&amp;送货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>任务ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>任务类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>任务具体内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期时间s</t>
+  </si>
+  <si>
+    <t>剩余时间</t>
   </si>
   <si>
     <t>奖励经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将这封信送给邻村的谢大脚</t>
   </si>
   <si>
     <t>帮隔壁吴老二打5桶水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给王大拿传个话</t>
   </si>
   <si>
     <t>教训一下村口蹦迪的小混混</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将这封信送给邻村的谢大脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给王大拿传个话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>教训一下谢广坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教训夜店里蹦迪的小混混们</t>
   </si>
   <si>
     <t>找到刘能，给他点教训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>教训夜店里蹦迪的小混混们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>教训董事长办公室的王大拿</t>
   </si>
   <si>
     <t>教训网吧里抢劫小学生的小混混们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教训董事长办公室的王大拿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>教训大脚超市的谢大脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期时间s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -166,99 +462,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="等级经验"/>
@@ -271,477 +786,1598 @@
           <cell r="C12">
             <v>1</v>
           </cell>
+        </row>
+        <row r="12">
           <cell r="S12">
             <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AA12">
+            <v>1</v>
+          </cell>
+          <cell r="AB12">
+            <v>1.5</v>
+          </cell>
+          <cell r="AC12">
+            <v>2</v>
+          </cell>
+          <cell r="AD12">
+            <v>2.5</v>
+          </cell>
+          <cell r="AE12">
+            <v>3</v>
           </cell>
         </row>
         <row r="13">
           <cell r="C13">
             <v>2</v>
           </cell>
+        </row>
+        <row r="13">
           <cell r="S13">
             <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AA13">
+            <v>1.1</v>
+          </cell>
+          <cell r="AB13">
+            <v>1.65</v>
+          </cell>
+          <cell r="AC13">
+            <v>2.2</v>
+          </cell>
+          <cell r="AD13">
+            <v>2.75</v>
+          </cell>
+          <cell r="AE13">
+            <v>3.3</v>
           </cell>
         </row>
         <row r="14">
           <cell r="C14">
             <v>3</v>
           </cell>
+        </row>
+        <row r="14">
           <cell r="S14">
             <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AA14">
+            <v>1.2</v>
+          </cell>
+          <cell r="AB14">
+            <v>1.8</v>
+          </cell>
+          <cell r="AC14">
+            <v>2.4</v>
+          </cell>
+          <cell r="AD14">
+            <v>3</v>
+          </cell>
+          <cell r="AE14">
+            <v>3.6</v>
           </cell>
         </row>
         <row r="15">
           <cell r="C15">
             <v>4</v>
           </cell>
+        </row>
+        <row r="15">
           <cell r="S15">
             <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AA15">
+            <v>1.3</v>
+          </cell>
+          <cell r="AB15">
+            <v>1.95</v>
+          </cell>
+          <cell r="AC15">
+            <v>2.6</v>
+          </cell>
+          <cell r="AD15">
+            <v>3.25</v>
+          </cell>
+          <cell r="AE15">
+            <v>3.9</v>
           </cell>
         </row>
         <row r="16">
           <cell r="C16">
             <v>5</v>
           </cell>
+        </row>
+        <row r="16">
           <cell r="S16">
             <v>905</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AA16">
+            <v>1.4</v>
+          </cell>
+          <cell r="AB16">
+            <v>2.1</v>
+          </cell>
+          <cell r="AC16">
+            <v>2.8</v>
+          </cell>
+          <cell r="AD16">
+            <v>3.5</v>
+          </cell>
+          <cell r="AE16">
+            <v>4.2</v>
           </cell>
         </row>
         <row r="17">
           <cell r="C17">
             <v>6</v>
           </cell>
+        </row>
+        <row r="17">
           <cell r="S17">
             <v>920</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AA17">
+            <v>1.5</v>
+          </cell>
+          <cell r="AB17">
+            <v>2.25</v>
+          </cell>
+          <cell r="AC17">
+            <v>3</v>
+          </cell>
+          <cell r="AD17">
+            <v>3.75</v>
+          </cell>
+          <cell r="AE17">
+            <v>4.5</v>
           </cell>
         </row>
         <row r="18">
           <cell r="C18">
             <v>7</v>
           </cell>
+        </row>
+        <row r="18">
           <cell r="S18">
             <v>935</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AA18">
+            <v>1.6</v>
+          </cell>
+          <cell r="AB18">
+            <v>2.4</v>
+          </cell>
+          <cell r="AC18">
+            <v>3.2</v>
+          </cell>
+          <cell r="AD18">
+            <v>4</v>
+          </cell>
+          <cell r="AE18">
+            <v>4.8</v>
           </cell>
         </row>
         <row r="19">
           <cell r="C19">
             <v>8</v>
           </cell>
+        </row>
+        <row r="19">
           <cell r="S19">
             <v>950</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AA19">
+            <v>1.7</v>
+          </cell>
+          <cell r="AB19">
+            <v>2.55</v>
+          </cell>
+          <cell r="AC19">
+            <v>3.4</v>
+          </cell>
+          <cell r="AD19">
+            <v>4.25</v>
+          </cell>
+          <cell r="AE19">
+            <v>5.1</v>
           </cell>
         </row>
         <row r="20">
           <cell r="C20">
             <v>9</v>
           </cell>
+        </row>
+        <row r="20">
           <cell r="S20">
             <v>965</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AA20">
+            <v>1.8</v>
+          </cell>
+          <cell r="AB20">
+            <v>2.7</v>
+          </cell>
+          <cell r="AC20">
+            <v>3.6</v>
+          </cell>
+          <cell r="AD20">
+            <v>4.5</v>
+          </cell>
+          <cell r="AE20">
+            <v>5.4</v>
           </cell>
         </row>
         <row r="21">
           <cell r="C21">
             <v>10</v>
           </cell>
+        </row>
+        <row r="21">
           <cell r="S21">
             <v>1021</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="AA21">
+            <v>1.9</v>
+          </cell>
+          <cell r="AB21">
+            <v>2.85</v>
+          </cell>
+          <cell r="AC21">
+            <v>3.8</v>
+          </cell>
+          <cell r="AD21">
+            <v>4.75</v>
+          </cell>
+          <cell r="AE21">
+            <v>5.7</v>
           </cell>
         </row>
         <row r="22">
           <cell r="C22">
             <v>11</v>
           </cell>
+        </row>
+        <row r="22">
           <cell r="S22">
             <v>1068</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AA22">
+            <v>2</v>
+          </cell>
+          <cell r="AB22">
+            <v>3</v>
+          </cell>
+          <cell r="AC22">
+            <v>4</v>
+          </cell>
+          <cell r="AD22">
+            <v>5</v>
+          </cell>
+          <cell r="AE22">
+            <v>6</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23">
             <v>12</v>
           </cell>
+        </row>
+        <row r="23">
           <cell r="S23">
             <v>1125</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AA23">
+            <v>2.1</v>
+          </cell>
+          <cell r="AB23">
+            <v>3.15</v>
+          </cell>
+          <cell r="AC23">
+            <v>4.2</v>
+          </cell>
+          <cell r="AD23">
+            <v>5.25</v>
+          </cell>
+          <cell r="AE23">
+            <v>6.3</v>
           </cell>
         </row>
         <row r="24">
           <cell r="C24">
             <v>13</v>
           </cell>
+        </row>
+        <row r="24">
           <cell r="S24">
             <v>1188</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AA24">
+            <v>2.2</v>
+          </cell>
+          <cell r="AB24">
+            <v>3.3</v>
+          </cell>
+          <cell r="AC24">
+            <v>4.4</v>
+          </cell>
+          <cell r="AD24">
+            <v>5.5</v>
+          </cell>
+          <cell r="AE24">
+            <v>6.6</v>
           </cell>
         </row>
         <row r="25">
           <cell r="C25">
             <v>14</v>
           </cell>
+        </row>
+        <row r="25">
           <cell r="S25">
             <v>1258</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AA25">
+            <v>2.3</v>
+          </cell>
+          <cell r="AB25">
+            <v>3.45</v>
+          </cell>
+          <cell r="AC25">
+            <v>4.6</v>
+          </cell>
+          <cell r="AD25">
+            <v>5.75</v>
+          </cell>
+          <cell r="AE25">
+            <v>6.9</v>
           </cell>
         </row>
         <row r="26">
           <cell r="C26">
             <v>15</v>
           </cell>
+        </row>
+        <row r="26">
           <cell r="S26">
             <v>1335</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AA26">
+            <v>2.4</v>
+          </cell>
+          <cell r="AB26">
+            <v>3.6</v>
+          </cell>
+          <cell r="AC26">
+            <v>4.8</v>
+          </cell>
+          <cell r="AD26">
+            <v>6</v>
+          </cell>
+          <cell r="AE26">
+            <v>7.2</v>
           </cell>
         </row>
         <row r="27">
           <cell r="C27">
             <v>16</v>
           </cell>
+        </row>
+        <row r="27">
           <cell r="S27">
             <v>1417</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AA27">
+            <v>2.5</v>
+          </cell>
+          <cell r="AB27">
+            <v>3.75</v>
+          </cell>
+          <cell r="AC27">
+            <v>5</v>
+          </cell>
+          <cell r="AD27">
+            <v>6.25</v>
+          </cell>
+          <cell r="AE27">
+            <v>7.5</v>
           </cell>
         </row>
         <row r="28">
           <cell r="C28">
             <v>17</v>
           </cell>
+        </row>
+        <row r="28">
           <cell r="S28">
             <v>1505</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AA28">
+            <v>2.6</v>
+          </cell>
+          <cell r="AB28">
+            <v>3.9</v>
+          </cell>
+          <cell r="AC28">
+            <v>5.2</v>
+          </cell>
+          <cell r="AD28">
+            <v>6.5</v>
+          </cell>
+          <cell r="AE28">
+            <v>7.8</v>
           </cell>
         </row>
         <row r="29">
           <cell r="C29">
             <v>18</v>
           </cell>
+        </row>
+        <row r="29">
           <cell r="S29">
             <v>1597</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AA29">
+            <v>2.7</v>
+          </cell>
+          <cell r="AB29">
+            <v>4.05</v>
+          </cell>
+          <cell r="AC29">
+            <v>5.4</v>
+          </cell>
+          <cell r="AD29">
+            <v>6.75</v>
+          </cell>
+          <cell r="AE29">
+            <v>8.1</v>
           </cell>
         </row>
         <row r="30">
           <cell r="C30">
             <v>19</v>
           </cell>
+        </row>
+        <row r="30">
           <cell r="S30">
             <v>1694</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AA30">
+            <v>2.8</v>
+          </cell>
+          <cell r="AB30">
+            <v>4.2</v>
+          </cell>
+          <cell r="AC30">
+            <v>5.6</v>
+          </cell>
+          <cell r="AD30">
+            <v>7</v>
+          </cell>
+          <cell r="AE30">
+            <v>8.4</v>
           </cell>
         </row>
         <row r="31">
           <cell r="C31">
             <v>20</v>
           </cell>
+        </row>
+        <row r="31">
           <cell r="S31">
             <v>1778</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AA31">
+            <v>2.9</v>
+          </cell>
+          <cell r="AB31">
+            <v>4.35</v>
+          </cell>
+          <cell r="AC31">
+            <v>5.8</v>
+          </cell>
+          <cell r="AD31">
+            <v>7.25</v>
+          </cell>
+          <cell r="AE31">
+            <v>8.7</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
             <v>21</v>
           </cell>
+        </row>
+        <row r="32">
           <cell r="S32">
             <v>1849</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AA32">
+            <v>3</v>
+          </cell>
+          <cell r="AB32">
+            <v>4.5</v>
+          </cell>
+          <cell r="AC32">
+            <v>6</v>
+          </cell>
+          <cell r="AD32">
+            <v>7.5</v>
+          </cell>
+          <cell r="AE32">
+            <v>9</v>
           </cell>
         </row>
         <row r="33">
           <cell r="C33">
             <v>22</v>
           </cell>
+        </row>
+        <row r="33">
           <cell r="S33">
             <v>1934</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="AA33">
+            <v>3.1</v>
+          </cell>
+          <cell r="AB33">
+            <v>4.65</v>
+          </cell>
+          <cell r="AC33">
+            <v>6.2</v>
+          </cell>
+          <cell r="AD33">
+            <v>7.75</v>
+          </cell>
+          <cell r="AE33">
+            <v>9.3</v>
           </cell>
         </row>
         <row r="34">
           <cell r="C34">
             <v>23</v>
           </cell>
+        </row>
+        <row r="34">
           <cell r="S34">
             <v>2029</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="AA34">
+            <v>3.2</v>
+          </cell>
+          <cell r="AB34">
+            <v>4.8</v>
+          </cell>
+          <cell r="AC34">
+            <v>6.4</v>
+          </cell>
+          <cell r="AD34">
+            <v>8</v>
+          </cell>
+          <cell r="AE34">
+            <v>9.6</v>
           </cell>
         </row>
         <row r="35">
           <cell r="C35">
             <v>24</v>
           </cell>
+        </row>
+        <row r="35">
           <cell r="S35">
             <v>2134</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="AA35">
+            <v>3.3</v>
+          </cell>
+          <cell r="AB35">
+            <v>4.95</v>
+          </cell>
+          <cell r="AC35">
+            <v>6.6</v>
+          </cell>
+          <cell r="AD35">
+            <v>8.25</v>
+          </cell>
+          <cell r="AE35">
+            <v>9.9</v>
           </cell>
         </row>
         <row r="36">
           <cell r="C36">
             <v>25</v>
           </cell>
+        </row>
+        <row r="36">
           <cell r="S36">
             <v>2249</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AA36">
+            <v>3.4</v>
+          </cell>
+          <cell r="AB36">
+            <v>5.1</v>
+          </cell>
+          <cell r="AC36">
+            <v>6.8</v>
+          </cell>
+          <cell r="AD36">
+            <v>8.5</v>
+          </cell>
+          <cell r="AE36">
+            <v>10.2</v>
           </cell>
         </row>
         <row r="37">
           <cell r="C37">
             <v>26</v>
           </cell>
+        </row>
+        <row r="37">
           <cell r="S37">
             <v>2372</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="AA37">
+            <v>3.5</v>
+          </cell>
+          <cell r="AB37">
+            <v>5.25</v>
+          </cell>
+          <cell r="AC37">
+            <v>7</v>
+          </cell>
+          <cell r="AD37">
+            <v>8.75</v>
+          </cell>
+          <cell r="AE37">
+            <v>10.5</v>
           </cell>
         </row>
         <row r="38">
           <cell r="C38">
             <v>27</v>
           </cell>
+        </row>
+        <row r="38">
           <cell r="S38">
             <v>2504</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="AA38">
+            <v>3.6</v>
+          </cell>
+          <cell r="AB38">
+            <v>5.4</v>
+          </cell>
+          <cell r="AC38">
+            <v>7.2</v>
+          </cell>
+          <cell r="AD38">
+            <v>9</v>
+          </cell>
+          <cell r="AE38">
+            <v>10.8</v>
           </cell>
         </row>
         <row r="39">
           <cell r="C39">
             <v>28</v>
           </cell>
+        </row>
+        <row r="39">
           <cell r="S39">
             <v>2642</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="AA39">
+            <v>3.7</v>
+          </cell>
+          <cell r="AB39">
+            <v>5.55</v>
+          </cell>
+          <cell r="AC39">
+            <v>7.4</v>
+          </cell>
+          <cell r="AD39">
+            <v>9.25</v>
+          </cell>
+          <cell r="AE39">
+            <v>11.1</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40">
             <v>29</v>
           </cell>
+        </row>
+        <row r="40">
           <cell r="S40">
             <v>2788</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="AA40">
+            <v>3.8</v>
+          </cell>
+          <cell r="AB40">
+            <v>5.7</v>
+          </cell>
+          <cell r="AC40">
+            <v>7.6</v>
+          </cell>
+          <cell r="AD40">
+            <v>9.5</v>
+          </cell>
+          <cell r="AE40">
+            <v>11.4</v>
           </cell>
         </row>
         <row r="41">
           <cell r="C41">
             <v>30</v>
           </cell>
+        </row>
+        <row r="41">
           <cell r="S41">
             <v>2928</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="AA41">
+            <v>3.9</v>
+          </cell>
+          <cell r="AB41">
+            <v>5.85</v>
+          </cell>
+          <cell r="AC41">
+            <v>7.8</v>
+          </cell>
+          <cell r="AD41">
+            <v>9.75</v>
+          </cell>
+          <cell r="AE41">
+            <v>11.7</v>
           </cell>
         </row>
         <row r="42">
           <cell r="C42">
             <v>31</v>
           </cell>
+        </row>
+        <row r="42">
           <cell r="S42">
             <v>3103</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="AA42">
+            <v>4</v>
+          </cell>
+          <cell r="AB42">
+            <v>6</v>
+          </cell>
+          <cell r="AC42">
+            <v>8</v>
+          </cell>
+          <cell r="AD42">
+            <v>10</v>
+          </cell>
+          <cell r="AE42">
+            <v>12</v>
           </cell>
         </row>
         <row r="43">
           <cell r="C43">
             <v>32</v>
           </cell>
+        </row>
+        <row r="43">
           <cell r="S43">
             <v>3348</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="AA43">
+            <v>4.1</v>
+          </cell>
+          <cell r="AB43">
+            <v>6.15</v>
+          </cell>
+          <cell r="AC43">
+            <v>8.2</v>
+          </cell>
+          <cell r="AD43">
+            <v>10.25</v>
+          </cell>
+          <cell r="AE43">
+            <v>12.3</v>
           </cell>
         </row>
         <row r="44">
           <cell r="C44">
             <v>33</v>
           </cell>
+        </row>
+        <row r="44">
           <cell r="S44">
             <v>3663</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="AA44">
+            <v>4.2</v>
+          </cell>
+          <cell r="AB44">
+            <v>6.3</v>
+          </cell>
+          <cell r="AC44">
+            <v>8.4</v>
+          </cell>
+          <cell r="AD44">
+            <v>10.5</v>
+          </cell>
+          <cell r="AE44">
+            <v>12.6</v>
           </cell>
         </row>
         <row r="45">
           <cell r="C45">
             <v>34</v>
           </cell>
+        </row>
+        <row r="45">
           <cell r="S45">
             <v>4048</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="AA45">
+            <v>4.3</v>
+          </cell>
+          <cell r="AB45">
+            <v>6.45</v>
+          </cell>
+          <cell r="AC45">
+            <v>8.6</v>
+          </cell>
+          <cell r="AD45">
+            <v>10.75</v>
+          </cell>
+          <cell r="AE45">
+            <v>12.9</v>
           </cell>
         </row>
         <row r="46">
           <cell r="C46">
             <v>35</v>
           </cell>
+        </row>
+        <row r="46">
           <cell r="S46">
             <v>4503</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="AA46">
+            <v>4.4</v>
+          </cell>
+          <cell r="AB46">
+            <v>6.6</v>
+          </cell>
+          <cell r="AC46">
+            <v>8.8</v>
+          </cell>
+          <cell r="AD46">
+            <v>11</v>
+          </cell>
+          <cell r="AE46">
+            <v>13.2</v>
           </cell>
         </row>
         <row r="47">
           <cell r="C47">
             <v>36</v>
           </cell>
+        </row>
+        <row r="47">
           <cell r="S47">
             <v>5028</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="AA47">
+            <v>4.5</v>
+          </cell>
+          <cell r="AB47">
+            <v>6.75</v>
+          </cell>
+          <cell r="AC47">
+            <v>9</v>
+          </cell>
+          <cell r="AD47">
+            <v>11.25</v>
+          </cell>
+          <cell r="AE47">
+            <v>13.5</v>
           </cell>
         </row>
         <row r="48">
           <cell r="C48">
             <v>37</v>
           </cell>
+        </row>
+        <row r="48">
           <cell r="S48">
             <v>5623</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="AA48">
+            <v>4.6</v>
+          </cell>
+          <cell r="AB48">
+            <v>6.9</v>
+          </cell>
+          <cell r="AC48">
+            <v>9.2</v>
+          </cell>
+          <cell r="AD48">
+            <v>11.5</v>
+          </cell>
+          <cell r="AE48">
+            <v>13.8</v>
           </cell>
         </row>
         <row r="49">
           <cell r="C49">
             <v>38</v>
           </cell>
+        </row>
+        <row r="49">
           <cell r="S49">
             <v>6288</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="AA49">
+            <v>4.7</v>
+          </cell>
+          <cell r="AB49">
+            <v>7.05</v>
+          </cell>
+          <cell r="AC49">
+            <v>9.4</v>
+          </cell>
+          <cell r="AD49">
+            <v>11.75</v>
+          </cell>
+          <cell r="AE49">
+            <v>14.1</v>
           </cell>
         </row>
         <row r="50">
           <cell r="C50">
             <v>39</v>
           </cell>
+        </row>
+        <row r="50">
           <cell r="S50">
             <v>7023</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="AA50">
+            <v>4.8</v>
+          </cell>
+          <cell r="AB50">
+            <v>7.2</v>
+          </cell>
+          <cell r="AC50">
+            <v>9.6</v>
+          </cell>
+          <cell r="AD50">
+            <v>12</v>
+          </cell>
+          <cell r="AE50">
+            <v>14.4</v>
           </cell>
         </row>
         <row r="51">
           <cell r="C51">
             <v>40</v>
           </cell>
+        </row>
+        <row r="51">
           <cell r="S51">
             <v>7183</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="AA51">
+            <v>4.9</v>
+          </cell>
+          <cell r="AB51">
+            <v>7.35</v>
+          </cell>
+          <cell r="AC51">
+            <v>9.8</v>
+          </cell>
+          <cell r="AD51">
+            <v>12.25</v>
+          </cell>
+          <cell r="AE51">
+            <v>14.7</v>
           </cell>
         </row>
         <row r="52">
           <cell r="C52">
             <v>41</v>
           </cell>
+        </row>
+        <row r="52">
           <cell r="S52">
             <v>7383</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AA52">
+            <v>5</v>
+          </cell>
+          <cell r="AB52">
+            <v>7.5</v>
+          </cell>
+          <cell r="AC52">
+            <v>10</v>
+          </cell>
+          <cell r="AD52">
+            <v>12.5</v>
+          </cell>
+          <cell r="AE52">
+            <v>15</v>
           </cell>
         </row>
         <row r="53">
           <cell r="C53">
             <v>42</v>
           </cell>
+        </row>
+        <row r="53">
           <cell r="S53">
             <v>7663</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="AA53">
+            <v>5.1</v>
+          </cell>
+          <cell r="AB53">
+            <v>7.65</v>
+          </cell>
+          <cell r="AC53">
+            <v>10.2</v>
+          </cell>
+          <cell r="AD53">
+            <v>12.75</v>
+          </cell>
+          <cell r="AE53">
+            <v>15.3</v>
           </cell>
         </row>
         <row r="54">
           <cell r="C54">
             <v>43</v>
           </cell>
+        </row>
+        <row r="54">
           <cell r="S54">
             <v>8023</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="AA54">
+            <v>5.2</v>
+          </cell>
+          <cell r="AB54">
+            <v>7.8</v>
+          </cell>
+          <cell r="AC54">
+            <v>10.4</v>
+          </cell>
+          <cell r="AD54">
+            <v>13</v>
+          </cell>
+          <cell r="AE54">
+            <v>15.6</v>
           </cell>
         </row>
         <row r="55">
           <cell r="C55">
             <v>44</v>
           </cell>
+        </row>
+        <row r="55">
           <cell r="S55">
             <v>8463</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="AA55">
+            <v>5.3</v>
+          </cell>
+          <cell r="AB55">
+            <v>7.95</v>
+          </cell>
+          <cell r="AC55">
+            <v>10.6</v>
+          </cell>
+          <cell r="AD55">
+            <v>13.25</v>
+          </cell>
+          <cell r="AE55">
+            <v>15.9</v>
           </cell>
         </row>
         <row r="56">
           <cell r="C56">
             <v>45</v>
           </cell>
+        </row>
+        <row r="56">
           <cell r="S56">
             <v>8983</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="AA56">
+            <v>5.4</v>
+          </cell>
+          <cell r="AB56">
+            <v>8.1</v>
+          </cell>
+          <cell r="AC56">
+            <v>10.8</v>
+          </cell>
+          <cell r="AD56">
+            <v>13.5</v>
+          </cell>
+          <cell r="AE56">
+            <v>16.2</v>
           </cell>
         </row>
         <row r="57">
           <cell r="C57">
             <v>46</v>
           </cell>
+        </row>
+        <row r="57">
           <cell r="S57">
             <v>9583</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="AA57">
+            <v>5.5</v>
+          </cell>
+          <cell r="AB57">
+            <v>8.25</v>
+          </cell>
+          <cell r="AC57">
+            <v>11</v>
+          </cell>
+          <cell r="AD57">
+            <v>13.75</v>
+          </cell>
+          <cell r="AE57">
+            <v>16.5</v>
           </cell>
         </row>
         <row r="58">
           <cell r="C58">
             <v>47</v>
           </cell>
+        </row>
+        <row r="58">
           <cell r="S58">
             <v>10263</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="AA58">
+            <v>5.6</v>
+          </cell>
+          <cell r="AB58">
+            <v>8.4</v>
+          </cell>
+          <cell r="AC58">
+            <v>11.2</v>
+          </cell>
+          <cell r="AD58">
+            <v>14</v>
+          </cell>
+          <cell r="AE58">
+            <v>16.8</v>
           </cell>
         </row>
         <row r="59">
           <cell r="C59">
             <v>48</v>
           </cell>
+        </row>
+        <row r="59">
           <cell r="S59">
             <v>11023</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="AA59">
+            <v>5.7</v>
+          </cell>
+          <cell r="AB59">
+            <v>8.55</v>
+          </cell>
+          <cell r="AC59">
+            <v>11.4</v>
+          </cell>
+          <cell r="AD59">
+            <v>14.25</v>
+          </cell>
+          <cell r="AE59">
+            <v>17.1</v>
           </cell>
         </row>
         <row r="60">
           <cell r="C60">
             <v>49</v>
           </cell>
+        </row>
+        <row r="60">
           <cell r="S60">
             <v>11863</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="AA60">
+            <v>5.8</v>
+          </cell>
+          <cell r="AB60">
+            <v>8.7</v>
+          </cell>
+          <cell r="AC60">
+            <v>11.6</v>
+          </cell>
+          <cell r="AD60">
+            <v>14.5</v>
+          </cell>
+          <cell r="AE60">
+            <v>17.4</v>
           </cell>
         </row>
         <row r="61">
           <cell r="C61">
             <v>50</v>
           </cell>
+        </row>
+        <row r="61">
           <cell r="S61">
             <v>12043</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="AA61">
+            <v>5.9</v>
+          </cell>
+          <cell r="AB61">
+            <v>8.85</v>
+          </cell>
+          <cell r="AC61">
+            <v>11.8</v>
+          </cell>
+          <cell r="AD61">
+            <v>14.75</v>
+          </cell>
+          <cell r="AE61">
+            <v>17.7</v>
           </cell>
         </row>
         <row r="62">
           <cell r="C62">
             <v>51</v>
           </cell>
+        </row>
+        <row r="62">
           <cell r="S62">
             <v>12268</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="AA62">
+            <v>6</v>
+          </cell>
+          <cell r="AB62">
+            <v>9</v>
+          </cell>
+          <cell r="AC62">
+            <v>12</v>
+          </cell>
+          <cell r="AD62">
+            <v>15</v>
+          </cell>
+          <cell r="AE62">
+            <v>18</v>
           </cell>
         </row>
         <row r="63">
           <cell r="C63">
             <v>52</v>
           </cell>
+        </row>
+        <row r="63">
           <cell r="S63">
             <v>12583</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="AA63">
+            <v>6.1</v>
+          </cell>
+          <cell r="AB63">
+            <v>9.15</v>
+          </cell>
+          <cell r="AC63">
+            <v>12.2</v>
+          </cell>
+          <cell r="AD63">
+            <v>15.25</v>
+          </cell>
+          <cell r="AE63">
+            <v>18.3</v>
           </cell>
         </row>
         <row r="64">
           <cell r="C64">
             <v>53</v>
           </cell>
+        </row>
+        <row r="64">
           <cell r="S64">
             <v>12988</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="AA64">
+            <v>6.19999999999999</v>
+          </cell>
+          <cell r="AB64">
+            <v>9.29999999999999</v>
+          </cell>
+          <cell r="AC64">
+            <v>12.4</v>
+          </cell>
+          <cell r="AD64">
+            <v>15.5</v>
+          </cell>
+          <cell r="AE64">
+            <v>18.6</v>
           </cell>
         </row>
         <row r="65">
           <cell r="C65">
             <v>54</v>
           </cell>
+        </row>
+        <row r="65">
           <cell r="S65">
             <v>13483</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="AA65">
+            <v>6.29999999999999</v>
+          </cell>
+          <cell r="AB65">
+            <v>9.44999999999999</v>
+          </cell>
+          <cell r="AC65">
+            <v>12.6</v>
+          </cell>
+          <cell r="AD65">
+            <v>15.75</v>
+          </cell>
+          <cell r="AE65">
+            <v>18.9</v>
           </cell>
         </row>
         <row r="66">
           <cell r="C66">
             <v>55</v>
           </cell>
+        </row>
+        <row r="66">
           <cell r="S66">
             <v>14068</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="AA66">
+            <v>6.39999999999999</v>
+          </cell>
+          <cell r="AB66">
+            <v>9.59999999999998</v>
+          </cell>
+          <cell r="AC66">
+            <v>12.8</v>
+          </cell>
+          <cell r="AD66">
+            <v>16</v>
+          </cell>
+          <cell r="AE66">
+            <v>19.2</v>
           </cell>
         </row>
         <row r="67">
           <cell r="C67">
             <v>56</v>
           </cell>
+        </row>
+        <row r="67">
           <cell r="S67">
             <v>14743</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="AA67">
+            <v>6.49999999999999</v>
+          </cell>
+          <cell r="AB67">
+            <v>9.74999999999999</v>
+          </cell>
+          <cell r="AC67">
+            <v>13</v>
+          </cell>
+          <cell r="AD67">
+            <v>16.25</v>
+          </cell>
+          <cell r="AE67">
+            <v>19.5</v>
           </cell>
         </row>
         <row r="68">
           <cell r="C68">
             <v>57</v>
           </cell>
+        </row>
+        <row r="68">
           <cell r="S68">
             <v>15508</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="AA68">
+            <v>6.59999999999999</v>
+          </cell>
+          <cell r="AB68">
+            <v>9.89999999999998</v>
+          </cell>
+          <cell r="AC68">
+            <v>13.2</v>
+          </cell>
+          <cell r="AD68">
+            <v>16.5</v>
+          </cell>
+          <cell r="AE68">
+            <v>19.8</v>
           </cell>
         </row>
         <row r="69">
           <cell r="C69">
             <v>58</v>
           </cell>
+        </row>
+        <row r="69">
           <cell r="S69">
             <v>16363</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="AA69">
+            <v>6.69999999999999</v>
+          </cell>
+          <cell r="AB69">
+            <v>10.05</v>
+          </cell>
+          <cell r="AC69">
+            <v>13.4</v>
+          </cell>
+          <cell r="AD69">
+            <v>16.75</v>
+          </cell>
+          <cell r="AE69">
+            <v>20.1</v>
           </cell>
         </row>
         <row r="70">
           <cell r="C70">
             <v>59</v>
           </cell>
+        </row>
+        <row r="70">
           <cell r="S70">
             <v>17308</v>
           </cell>
         </row>
+        <row r="70">
+          <cell r="AA70">
+            <v>6.79999999999999</v>
+          </cell>
+          <cell r="AB70">
+            <v>10.2</v>
+          </cell>
+          <cell r="AC70">
+            <v>13.6</v>
+          </cell>
+          <cell r="AD70">
+            <v>17</v>
+          </cell>
+          <cell r="AE70">
+            <v>20.4</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -755,7 +2391,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -790,7 +2426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -825,7 +2461,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -999,50 +2635,54 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1050,49 +2690,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DBFB0D-74EA-4B0B-821D-FDC2E6A24B78}">
-  <dimension ref="B3:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="31.75" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="7" width="9.75" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1106,24 +2752,27 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1142,16 +2791,28 @@
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C4,任务类型!B$2:B$7,))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <f>INDEX(任务类型!$A$2:$A$7,MATCH(C4,任务类型!$B$2:$B$6,))</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J13" si="0">FLOOR(K4,5)</f>
+        <v>120</v>
+      </c>
+      <c r="K4" s="1">
+        <f>INDEX([1]等级经验!$AA$12:$AE$70,MATCH(E4,[1]等级经验!$C$12:$C$70,),I4)*F4</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1167,16 +2828,28 @@
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C5,任务类型!B$2:B$7,))</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <f>INDEX(任务类型!$A$2:$A$7,MATCH(C5,任务类型!$B$2:$B$6,))</f>
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>725</v>
+      </c>
+      <c r="K5" s="1">
+        <f>INDEX([1]等级经验!$AA$12:$AE$70,MATCH(E5,[1]等级经验!$C$12:$C$70,),I5)*F5</f>
+        <v>727.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1192,16 +2865,28 @@
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C6,任务类型!B$2:B$7,))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="1">
+        <f>INDEX(任务类型!$A$2:$A$7,MATCH(C6,任务类型!$B$2:$B$6,))</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="K6" s="1">
+        <f>INDEX([1]等级经验!$AA$12:$AE$70,MATCH(E6,[1]等级经验!$C$12:$C$70,),I6)*F6</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1217,8 +2902,20 @@
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C7,任务类型!B$2:B$7,))</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <f>INDEX(任务类型!$A$2:$A$7,MATCH(C7,任务类型!$B$2:$B$6,))</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>385</v>
+      </c>
+      <c r="K7" s="1">
+        <f>INDEX([1]等级经验!$AA$12:$AE$70,MATCH(E7,[1]等级经验!$C$12:$C$70,),I7)*F7</f>
+        <v>387.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1226,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1242,16 +2939,28 @@
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C8,任务类型!B$2:B$7,))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <f>INDEX(任务类型!$A$2:$A$7,MATCH(C8,任务类型!$B$2:$B$6,))</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="K8" s="1">
+        <f>INDEX([1]等级经验!$AA$12:$AE$70,MATCH(E8,[1]等级经验!$C$12:$C$70,),I8)*F8</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1267,8 +2976,20 @@
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C9,任务类型!B$2:B$7,))</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <f>INDEX(任务类型!$A$2:$A$7,MATCH(C9,任务类型!$B$2:$B$6,))</f>
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>1165</v>
+      </c>
+      <c r="K9" s="1">
+        <f>INDEX([1]等级经验!$AA$12:$AE$70,MATCH(E9,[1]等级经验!$C$12:$C$70,),I9)*F9</f>
+        <v>1168.75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10">
         <v>6</v>
       </c>
@@ -1276,7 +2997,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1292,16 +3013,28 @@
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C10,任务类型!B$2:B$7,))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <f>INDEX(任务类型!$A$2:$A$7,MATCH(C10,任务类型!$B$2:$B$6,))</f>
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="K10" s="1">
+        <f>INDEX([1]等级经验!$AA$12:$AE$70,MATCH(E10,[1]等级经验!$C$12:$C$70,),I10)*F10</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1317,16 +3050,28 @@
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C11,任务类型!B$2:B$7,))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <f>INDEX(任务类型!$A$2:$A$7,MATCH(C11,任务类型!$B$2:$B$6,))</f>
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>2160</v>
+      </c>
+      <c r="K11" s="1">
+        <f>INDEX([1]等级经验!$AA$12:$AE$70,MATCH(E11,[1]等级经验!$C$12:$C$70,),I11)*F11</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1342,16 +3087,28 @@
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C12,任务类型!B$2:B$7,))</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <f>INDEX(任务类型!$A$2:$A$7,MATCH(C12,任务类型!$B$2:$B$6,))</f>
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+      <c r="K12" s="1">
+        <f>INDEX([1]等级经验!$AA$12:$AE$70,MATCH(E12,[1]等级经验!$C$12:$C$70,),I12)*F12</f>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -1367,44 +3124,57 @@
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C13,任务类型!B$2:B$7,))</f>
         <v>3</v>
       </c>
+      <c r="I13" s="1">
+        <f>INDEX(任务类型!$A$2:$A$7,MATCH(C13,任务类型!$B$2:$B$6,))</f>
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>2065</v>
+      </c>
+      <c r="K13" s="1">
+        <f>INDEX([1]等级经验!$AA$12:$AE$70,MATCH(E13,[1]等级经验!$C$12:$C$70,),I13)*F13</f>
+        <v>2067</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B467C9E-404E-4DA3-92B8-4DF295A5C75C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1429,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1454,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1479,7 +3249,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>4</v>
       </c>
@@ -1504,7 +3274,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>5</v>
       </c>
@@ -1529,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>6</v>
       </c>
@@ -1554,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1579,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10">
         <v>8</v>
       </c>
@@ -1604,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1629,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12">
         <v>10</v>
       </c>
@@ -1654,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13">
         <v>11</v>
       </c>
@@ -1679,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14">
         <v>12</v>
       </c>
@@ -1704,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15">
         <v>13</v>
       </c>
@@ -1729,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16">
         <v>14</v>
       </c>
@@ -1754,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7">
       <c r="B17">
         <v>15</v>
       </c>
@@ -1779,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18">
         <v>16</v>
       </c>
@@ -1804,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7">
       <c r="B19">
         <v>17</v>
       </c>
@@ -1829,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7">
       <c r="B20">
         <v>18</v>
       </c>
@@ -1854,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7">
       <c r="B21">
         <v>19</v>
       </c>
@@ -1879,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7">
       <c r="B22">
         <v>20</v>
       </c>
@@ -1904,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7">
       <c r="B23">
         <v>21</v>
       </c>
@@ -1929,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7">
       <c r="B24">
         <v>22</v>
       </c>
@@ -1954,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7">
       <c r="B25">
         <v>23</v>
       </c>
@@ -1979,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7">
       <c r="B26">
         <v>24</v>
       </c>
@@ -2004,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7">
       <c r="B27">
         <v>25</v>
       </c>
@@ -2029,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7">
       <c r="B28">
         <v>26</v>
       </c>
@@ -2054,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7">
       <c r="B29">
         <v>27</v>
       </c>
@@ -2079,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7">
       <c r="B30">
         <v>28</v>
       </c>
@@ -2104,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7">
       <c r="B31">
         <v>29</v>
       </c>
@@ -2129,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7">
       <c r="B32">
         <v>30</v>
       </c>
@@ -2154,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33">
         <v>31</v>
       </c>
@@ -2179,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="B34">
         <v>32</v>
       </c>
@@ -2204,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="B35">
         <v>33</v>
       </c>
@@ -2229,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="B36">
         <v>34</v>
       </c>
@@ -2254,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7">
       <c r="B37">
         <v>35</v>
       </c>
@@ -2279,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="B38">
         <v>36</v>
       </c>
@@ -2304,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="B39">
         <v>37</v>
       </c>
@@ -2329,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7">
       <c r="B40">
         <v>38</v>
       </c>
@@ -2354,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7">
       <c r="B41">
         <v>39</v>
       </c>
@@ -2379,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7">
       <c r="B42">
         <v>40</v>
       </c>
@@ -2404,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7">
       <c r="B43">
         <v>41</v>
       </c>
@@ -2429,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7">
       <c r="B44">
         <v>42</v>
       </c>
@@ -2454,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7">
       <c r="B45">
         <v>43</v>
       </c>
@@ -2479,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7">
       <c r="B46">
         <v>44</v>
       </c>
@@ -2504,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7">
       <c r="B47">
         <v>45</v>
       </c>
@@ -2529,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7">
       <c r="B48">
         <v>46</v>
       </c>
@@ -2554,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7">
       <c r="B49">
         <v>47</v>
       </c>
@@ -2579,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7">
       <c r="B50">
         <v>48</v>
       </c>
@@ -2604,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7">
       <c r="B51">
         <v>49</v>
       </c>
@@ -2629,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7">
       <c r="B52">
         <v>50</v>
       </c>
@@ -2654,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7">
       <c r="B53">
         <v>51</v>
       </c>
@@ -2679,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7">
       <c r="B54">
         <v>52</v>
       </c>
@@ -2704,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7">
       <c r="B55">
         <v>53</v>
       </c>
@@ -2729,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7">
       <c r="B56">
         <v>54</v>
       </c>
@@ -2754,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7">
       <c r="B57">
         <v>55</v>
       </c>
@@ -2779,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7">
       <c r="B58">
         <v>56</v>
       </c>
@@ -2804,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7">
       <c r="B59">
         <v>57</v>
       </c>
@@ -2829,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7">
       <c r="B60">
         <v>58</v>
       </c>
@@ -2854,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7">
       <c r="B61">
         <v>59</v>
       </c>
@@ -2879,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7">
       <c r="B62">
         <v>60</v>
       </c>
@@ -2905,7 +4675,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Design/s_数值设定numerical/3_任务.xlsx
+++ b/Design/s_数值设定numerical/3_任务.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\Design\s_数值设定numerical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6576B702-8396-4058-A776-08ACA9404FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855D4235-9E38-464E-A258-F4E610DB9922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5865" yWindow="4590" windowWidth="28800" windowHeight="7830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1050" yWindow="-120" windowWidth="28800" windowHeight="7830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="任务类型" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>难度系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,12 +129,16 @@
     <t>剩余时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +148,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -170,8 +183,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -274,6 +288,21 @@
           <cell r="S12">
             <v>0</v>
           </cell>
+          <cell r="T12">
+            <v>1</v>
+          </cell>
+          <cell r="U12">
+            <v>1.5</v>
+          </cell>
+          <cell r="V12">
+            <v>2</v>
+          </cell>
+          <cell r="W12">
+            <v>2.5</v>
+          </cell>
+          <cell r="X12">
+            <v>3</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="C13">
@@ -282,6 +311,21 @@
           <cell r="S13">
             <v>0</v>
           </cell>
+          <cell r="T13">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="U13">
+            <v>1.6500000000000001</v>
+          </cell>
+          <cell r="V13">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="W13">
+            <v>2.75</v>
+          </cell>
+          <cell r="X13">
+            <v>3.3000000000000003</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="C14">
@@ -290,6 +334,21 @@
           <cell r="S14">
             <v>0</v>
           </cell>
+          <cell r="T14">
+            <v>1.2000000000000002</v>
+          </cell>
+          <cell r="U14">
+            <v>1.8000000000000003</v>
+          </cell>
+          <cell r="V14">
+            <v>2.4000000000000004</v>
+          </cell>
+          <cell r="W14">
+            <v>3.0000000000000004</v>
+          </cell>
+          <cell r="X14">
+            <v>3.6000000000000005</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="C15">
@@ -298,6 +357,21 @@
           <cell r="S15">
             <v>0</v>
           </cell>
+          <cell r="T15">
+            <v>1.3000000000000003</v>
+          </cell>
+          <cell r="U15">
+            <v>1.9500000000000004</v>
+          </cell>
+          <cell r="V15">
+            <v>2.6000000000000005</v>
+          </cell>
+          <cell r="W15">
+            <v>3.2500000000000009</v>
+          </cell>
+          <cell r="X15">
+            <v>3.9000000000000008</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="C16">
@@ -306,6 +380,21 @@
           <cell r="S16">
             <v>905</v>
           </cell>
+          <cell r="T16">
+            <v>1.4000000000000004</v>
+          </cell>
+          <cell r="U16">
+            <v>2.1000000000000005</v>
+          </cell>
+          <cell r="V16">
+            <v>2.8000000000000007</v>
+          </cell>
+          <cell r="W16">
+            <v>3.5000000000000009</v>
+          </cell>
+          <cell r="X16">
+            <v>4.2000000000000011</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="C17">
@@ -314,6 +403,21 @@
           <cell r="S17">
             <v>920</v>
           </cell>
+          <cell r="T17">
+            <v>1.5000000000000004</v>
+          </cell>
+          <cell r="U17">
+            <v>2.2500000000000009</v>
+          </cell>
+          <cell r="V17">
+            <v>3.0000000000000009</v>
+          </cell>
+          <cell r="W17">
+            <v>3.7500000000000009</v>
+          </cell>
+          <cell r="X17">
+            <v>4.5000000000000018</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="C18">
@@ -322,6 +426,21 @@
           <cell r="S18">
             <v>935</v>
           </cell>
+          <cell r="T18">
+            <v>1.6000000000000005</v>
+          </cell>
+          <cell r="U18">
+            <v>2.4000000000000008</v>
+          </cell>
+          <cell r="V18">
+            <v>3.2000000000000011</v>
+          </cell>
+          <cell r="W18">
+            <v>4.0000000000000018</v>
+          </cell>
+          <cell r="X18">
+            <v>4.8000000000000016</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="C19">
@@ -330,6 +449,21 @@
           <cell r="S19">
             <v>950</v>
           </cell>
+          <cell r="T19">
+            <v>1.7000000000000006</v>
+          </cell>
+          <cell r="U19">
+            <v>2.5500000000000007</v>
+          </cell>
+          <cell r="V19">
+            <v>3.4000000000000012</v>
+          </cell>
+          <cell r="W19">
+            <v>4.2500000000000018</v>
+          </cell>
+          <cell r="X19">
+            <v>5.1000000000000014</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="C20">
@@ -338,6 +472,21 @@
           <cell r="S20">
             <v>965</v>
           </cell>
+          <cell r="T20">
+            <v>1.8000000000000007</v>
+          </cell>
+          <cell r="U20">
+            <v>2.7000000000000011</v>
+          </cell>
+          <cell r="V20">
+            <v>3.6000000000000014</v>
+          </cell>
+          <cell r="W20">
+            <v>4.5000000000000018</v>
+          </cell>
+          <cell r="X20">
+            <v>5.4000000000000021</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="C21">
@@ -346,6 +495,21 @@
           <cell r="S21">
             <v>1021</v>
           </cell>
+          <cell r="T21">
+            <v>1.9000000000000008</v>
+          </cell>
+          <cell r="U21">
+            <v>2.8500000000000014</v>
+          </cell>
+          <cell r="V21">
+            <v>3.8000000000000016</v>
+          </cell>
+          <cell r="W21">
+            <v>4.7500000000000018</v>
+          </cell>
+          <cell r="X21">
+            <v>5.7000000000000028</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="C22">
@@ -354,6 +518,21 @@
           <cell r="S22">
             <v>1068</v>
           </cell>
+          <cell r="T22">
+            <v>2.0000000000000009</v>
+          </cell>
+          <cell r="U22">
+            <v>3.0000000000000013</v>
+          </cell>
+          <cell r="V22">
+            <v>4.0000000000000018</v>
+          </cell>
+          <cell r="W22">
+            <v>5.0000000000000018</v>
+          </cell>
+          <cell r="X22">
+            <v>6.0000000000000027</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="C23">
@@ -362,6 +541,21 @@
           <cell r="S23">
             <v>1125</v>
           </cell>
+          <cell r="T23">
+            <v>2.100000000000001</v>
+          </cell>
+          <cell r="U23">
+            <v>3.1500000000000012</v>
+          </cell>
+          <cell r="V23">
+            <v>4.200000000000002</v>
+          </cell>
+          <cell r="W23">
+            <v>5.2500000000000027</v>
+          </cell>
+          <cell r="X23">
+            <v>6.3000000000000025</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="C24">
@@ -370,6 +564,21 @@
           <cell r="S24">
             <v>1188</v>
           </cell>
+          <cell r="T24">
+            <v>2.2000000000000011</v>
+          </cell>
+          <cell r="U24">
+            <v>3.3000000000000016</v>
+          </cell>
+          <cell r="V24">
+            <v>4.4000000000000021</v>
+          </cell>
+          <cell r="W24">
+            <v>5.5000000000000027</v>
+          </cell>
+          <cell r="X24">
+            <v>6.6000000000000032</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="C25">
@@ -378,6 +587,21 @@
           <cell r="S25">
             <v>1258</v>
           </cell>
+          <cell r="T25">
+            <v>2.3000000000000012</v>
+          </cell>
+          <cell r="U25">
+            <v>3.450000000000002</v>
+          </cell>
+          <cell r="V25">
+            <v>4.6000000000000023</v>
+          </cell>
+          <cell r="W25">
+            <v>5.7500000000000027</v>
+          </cell>
+          <cell r="X25">
+            <v>6.9000000000000039</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="C26">
@@ -386,6 +610,21 @@
           <cell r="S26">
             <v>1335</v>
           </cell>
+          <cell r="T26">
+            <v>2.4000000000000012</v>
+          </cell>
+          <cell r="U26">
+            <v>3.6000000000000019</v>
+          </cell>
+          <cell r="V26">
+            <v>4.8000000000000025</v>
+          </cell>
+          <cell r="W26">
+            <v>6.0000000000000036</v>
+          </cell>
+          <cell r="X26">
+            <v>7.2000000000000037</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="C27">
@@ -394,6 +633,21 @@
           <cell r="S27">
             <v>1417</v>
           </cell>
+          <cell r="T27">
+            <v>2.5000000000000013</v>
+          </cell>
+          <cell r="U27">
+            <v>3.7500000000000018</v>
+          </cell>
+          <cell r="V27">
+            <v>5.0000000000000027</v>
+          </cell>
+          <cell r="W27">
+            <v>6.2500000000000036</v>
+          </cell>
+          <cell r="X27">
+            <v>7.5000000000000036</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="C28">
@@ -402,6 +656,21 @@
           <cell r="S28">
             <v>1505</v>
           </cell>
+          <cell r="T28">
+            <v>2.6000000000000014</v>
+          </cell>
+          <cell r="U28">
+            <v>3.9000000000000021</v>
+          </cell>
+          <cell r="V28">
+            <v>5.2000000000000028</v>
+          </cell>
+          <cell r="W28">
+            <v>6.5000000000000036</v>
+          </cell>
+          <cell r="X28">
+            <v>7.8000000000000043</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="C29">
@@ -410,6 +679,21 @@
           <cell r="S29">
             <v>1597</v>
           </cell>
+          <cell r="T29">
+            <v>2.7000000000000015</v>
+          </cell>
+          <cell r="U29">
+            <v>4.0500000000000025</v>
+          </cell>
+          <cell r="V29">
+            <v>5.400000000000003</v>
+          </cell>
+          <cell r="W29">
+            <v>6.7500000000000036</v>
+          </cell>
+          <cell r="X29">
+            <v>8.100000000000005</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="C30">
@@ -418,6 +702,21 @@
           <cell r="S30">
             <v>1694</v>
           </cell>
+          <cell r="T30">
+            <v>2.8000000000000016</v>
+          </cell>
+          <cell r="U30">
+            <v>4.2000000000000028</v>
+          </cell>
+          <cell r="V30">
+            <v>5.6000000000000032</v>
+          </cell>
+          <cell r="W30">
+            <v>7.0000000000000036</v>
+          </cell>
+          <cell r="X30">
+            <v>8.4000000000000057</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="C31">
@@ -426,6 +725,21 @@
           <cell r="S31">
             <v>1778</v>
           </cell>
+          <cell r="T31">
+            <v>2.9000000000000017</v>
+          </cell>
+          <cell r="U31">
+            <v>4.3500000000000023</v>
+          </cell>
+          <cell r="V31">
+            <v>5.8000000000000034</v>
+          </cell>
+          <cell r="W31">
+            <v>7.2500000000000044</v>
+          </cell>
+          <cell r="X31">
+            <v>8.7000000000000046</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="C32">
@@ -434,6 +748,21 @@
           <cell r="S32">
             <v>1849</v>
           </cell>
+          <cell r="T32">
+            <v>3.0000000000000018</v>
+          </cell>
+          <cell r="U32">
+            <v>4.5000000000000027</v>
+          </cell>
+          <cell r="V32">
+            <v>6.0000000000000036</v>
+          </cell>
+          <cell r="W32">
+            <v>7.5000000000000044</v>
+          </cell>
+          <cell r="X32">
+            <v>9.0000000000000053</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="C33">
@@ -442,6 +771,21 @@
           <cell r="S33">
             <v>1934</v>
           </cell>
+          <cell r="T33">
+            <v>3.1000000000000019</v>
+          </cell>
+          <cell r="U33">
+            <v>4.650000000000003</v>
+          </cell>
+          <cell r="V33">
+            <v>6.2000000000000037</v>
+          </cell>
+          <cell r="W33">
+            <v>7.7500000000000044</v>
+          </cell>
+          <cell r="X33">
+            <v>9.300000000000006</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="C34">
@@ -450,6 +794,21 @@
           <cell r="S34">
             <v>2029</v>
           </cell>
+          <cell r="T34">
+            <v>3.200000000000002</v>
+          </cell>
+          <cell r="U34">
+            <v>4.8000000000000025</v>
+          </cell>
+          <cell r="V34">
+            <v>6.4000000000000039</v>
+          </cell>
+          <cell r="W34">
+            <v>8.0000000000000053</v>
+          </cell>
+          <cell r="X34">
+            <v>9.600000000000005</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="C35">
@@ -458,6 +817,21 @@
           <cell r="S35">
             <v>2134</v>
           </cell>
+          <cell r="T35">
+            <v>3.300000000000002</v>
+          </cell>
+          <cell r="U35">
+            <v>4.9500000000000028</v>
+          </cell>
+          <cell r="V35">
+            <v>6.6000000000000041</v>
+          </cell>
+          <cell r="W35">
+            <v>8.2500000000000053</v>
+          </cell>
+          <cell r="X35">
+            <v>9.9000000000000057</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="C36">
@@ -466,6 +840,21 @@
           <cell r="S36">
             <v>2249</v>
           </cell>
+          <cell r="T36">
+            <v>3.4000000000000021</v>
+          </cell>
+          <cell r="U36">
+            <v>5.1000000000000032</v>
+          </cell>
+          <cell r="V36">
+            <v>6.8000000000000043</v>
+          </cell>
+          <cell r="W36">
+            <v>8.5000000000000053</v>
+          </cell>
+          <cell r="X36">
+            <v>10.200000000000006</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="C37">
@@ -474,6 +863,21 @@
           <cell r="S37">
             <v>2372</v>
           </cell>
+          <cell r="T37">
+            <v>3.5000000000000022</v>
+          </cell>
+          <cell r="U37">
+            <v>5.2500000000000036</v>
+          </cell>
+          <cell r="V37">
+            <v>7.0000000000000044</v>
+          </cell>
+          <cell r="W37">
+            <v>8.7500000000000053</v>
+          </cell>
+          <cell r="X37">
+            <v>10.500000000000007</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="C38">
@@ -482,6 +886,21 @@
           <cell r="S38">
             <v>2504</v>
           </cell>
+          <cell r="T38">
+            <v>3.6000000000000023</v>
+          </cell>
+          <cell r="U38">
+            <v>5.4000000000000039</v>
+          </cell>
+          <cell r="V38">
+            <v>7.2000000000000046</v>
+          </cell>
+          <cell r="W38">
+            <v>9.0000000000000053</v>
+          </cell>
+          <cell r="X38">
+            <v>10.800000000000008</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="C39">
@@ -490,6 +909,21 @@
           <cell r="S39">
             <v>2642</v>
           </cell>
+          <cell r="T39">
+            <v>3.7000000000000024</v>
+          </cell>
+          <cell r="U39">
+            <v>5.5500000000000034</v>
+          </cell>
+          <cell r="V39">
+            <v>7.4000000000000048</v>
+          </cell>
+          <cell r="W39">
+            <v>9.2500000000000053</v>
+          </cell>
+          <cell r="X39">
+            <v>11.100000000000007</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="C40">
@@ -498,6 +932,21 @@
           <cell r="S40">
             <v>2788</v>
           </cell>
+          <cell r="T40">
+            <v>3.8000000000000025</v>
+          </cell>
+          <cell r="U40">
+            <v>5.7000000000000037</v>
+          </cell>
+          <cell r="V40">
+            <v>7.600000000000005</v>
+          </cell>
+          <cell r="W40">
+            <v>9.5000000000000071</v>
+          </cell>
+          <cell r="X40">
+            <v>11.400000000000007</v>
+          </cell>
         </row>
         <row r="41">
           <cell r="C41">
@@ -506,6 +955,21 @@
           <cell r="S41">
             <v>2928</v>
           </cell>
+          <cell r="T41">
+            <v>3.9000000000000026</v>
+          </cell>
+          <cell r="U41">
+            <v>5.8500000000000041</v>
+          </cell>
+          <cell r="V41">
+            <v>7.8000000000000052</v>
+          </cell>
+          <cell r="W41">
+            <v>9.7500000000000071</v>
+          </cell>
+          <cell r="X41">
+            <v>11.700000000000008</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="C42">
@@ -514,6 +978,21 @@
           <cell r="S42">
             <v>3103</v>
           </cell>
+          <cell r="T42">
+            <v>4.0000000000000027</v>
+          </cell>
+          <cell r="U42">
+            <v>6.0000000000000036</v>
+          </cell>
+          <cell r="V42">
+            <v>8.0000000000000053</v>
+          </cell>
+          <cell r="W42">
+            <v>10.000000000000007</v>
+          </cell>
+          <cell r="X42">
+            <v>12.000000000000007</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="C43">
@@ -522,6 +1001,21 @@
           <cell r="S43">
             <v>3348</v>
           </cell>
+          <cell r="T43">
+            <v>4.1000000000000023</v>
+          </cell>
+          <cell r="U43">
+            <v>6.1500000000000039</v>
+          </cell>
+          <cell r="V43">
+            <v>8.2000000000000046</v>
+          </cell>
+          <cell r="W43">
+            <v>10.250000000000005</v>
+          </cell>
+          <cell r="X43">
+            <v>12.300000000000008</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="C44">
@@ -530,6 +1024,21 @@
           <cell r="S44">
             <v>3663</v>
           </cell>
+          <cell r="T44">
+            <v>4.200000000000002</v>
+          </cell>
+          <cell r="U44">
+            <v>6.3000000000000025</v>
+          </cell>
+          <cell r="V44">
+            <v>8.4000000000000039</v>
+          </cell>
+          <cell r="W44">
+            <v>10.500000000000005</v>
+          </cell>
+          <cell r="X44">
+            <v>12.600000000000005</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="C45">
@@ -538,6 +1047,21 @@
           <cell r="S45">
             <v>4048</v>
           </cell>
+          <cell r="T45">
+            <v>4.3000000000000016</v>
+          </cell>
+          <cell r="U45">
+            <v>6.4500000000000028</v>
+          </cell>
+          <cell r="V45">
+            <v>8.6000000000000032</v>
+          </cell>
+          <cell r="W45">
+            <v>10.750000000000004</v>
+          </cell>
+          <cell r="X45">
+            <v>12.900000000000006</v>
+          </cell>
         </row>
         <row r="46">
           <cell r="C46">
@@ -546,6 +1070,21 @@
           <cell r="S46">
             <v>4503</v>
           </cell>
+          <cell r="T46">
+            <v>4.4000000000000012</v>
+          </cell>
+          <cell r="U46">
+            <v>6.6000000000000014</v>
+          </cell>
+          <cell r="V46">
+            <v>8.8000000000000025</v>
+          </cell>
+          <cell r="W46">
+            <v>11.000000000000004</v>
+          </cell>
+          <cell r="X46">
+            <v>13.200000000000003</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="C47">
@@ -554,6 +1093,21 @@
           <cell r="S47">
             <v>5028</v>
           </cell>
+          <cell r="T47">
+            <v>4.5000000000000009</v>
+          </cell>
+          <cell r="U47">
+            <v>6.7500000000000018</v>
+          </cell>
+          <cell r="V47">
+            <v>9.0000000000000018</v>
+          </cell>
+          <cell r="W47">
+            <v>11.250000000000002</v>
+          </cell>
+          <cell r="X47">
+            <v>13.500000000000004</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="C48">
@@ -562,6 +1116,21 @@
           <cell r="S48">
             <v>5623</v>
           </cell>
+          <cell r="T48">
+            <v>4.6000000000000005</v>
+          </cell>
+          <cell r="U48">
+            <v>6.9</v>
+          </cell>
+          <cell r="V48">
+            <v>9.2000000000000011</v>
+          </cell>
+          <cell r="W48">
+            <v>11.500000000000002</v>
+          </cell>
+          <cell r="X48">
+            <v>13.8</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="C49">
@@ -570,6 +1139,21 @@
           <cell r="S49">
             <v>6288</v>
           </cell>
+          <cell r="T49">
+            <v>4.7</v>
+          </cell>
+          <cell r="U49">
+            <v>7.0500000000000007</v>
+          </cell>
+          <cell r="V49">
+            <v>9.4</v>
+          </cell>
+          <cell r="W49">
+            <v>11.75</v>
+          </cell>
+          <cell r="X49">
+            <v>14.100000000000001</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="C50">
@@ -578,6 +1162,21 @@
           <cell r="S50">
             <v>7023</v>
           </cell>
+          <cell r="T50">
+            <v>4.8</v>
+          </cell>
+          <cell r="U50">
+            <v>7.1999999999999993</v>
+          </cell>
+          <cell r="V50">
+            <v>9.6</v>
+          </cell>
+          <cell r="W50">
+            <v>12</v>
+          </cell>
+          <cell r="X50">
+            <v>14.399999999999999</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="C51">
@@ -586,6 +1185,21 @@
           <cell r="S51">
             <v>7183</v>
           </cell>
+          <cell r="T51">
+            <v>4.8999999999999995</v>
+          </cell>
+          <cell r="U51">
+            <v>7.35</v>
+          </cell>
+          <cell r="V51">
+            <v>9.7999999999999989</v>
+          </cell>
+          <cell r="W51">
+            <v>12.249999999999998</v>
+          </cell>
+          <cell r="X51">
+            <v>14.7</v>
+          </cell>
         </row>
         <row r="52">
           <cell r="C52">
@@ -594,6 +1208,21 @@
           <cell r="S52">
             <v>7383</v>
           </cell>
+          <cell r="T52">
+            <v>4.9999999999999991</v>
+          </cell>
+          <cell r="U52">
+            <v>7.4999999999999982</v>
+          </cell>
+          <cell r="V52">
+            <v>9.9999999999999982</v>
+          </cell>
+          <cell r="W52">
+            <v>12.499999999999998</v>
+          </cell>
+          <cell r="X52">
+            <v>14.999999999999996</v>
+          </cell>
         </row>
         <row r="53">
           <cell r="C53">
@@ -602,6 +1231,21 @@
           <cell r="S53">
             <v>7663</v>
           </cell>
+          <cell r="T53">
+            <v>5.0999999999999988</v>
+          </cell>
+          <cell r="U53">
+            <v>7.6499999999999986</v>
+          </cell>
+          <cell r="V53">
+            <v>10.199999999999998</v>
+          </cell>
+          <cell r="W53">
+            <v>12.749999999999996</v>
+          </cell>
+          <cell r="X53">
+            <v>15.299999999999997</v>
+          </cell>
         </row>
         <row r="54">
           <cell r="C54">
@@ -610,6 +1254,21 @@
           <cell r="S54">
             <v>8023</v>
           </cell>
+          <cell r="T54">
+            <v>5.1999999999999984</v>
+          </cell>
+          <cell r="U54">
+            <v>7.7999999999999972</v>
+          </cell>
+          <cell r="V54">
+            <v>10.399999999999997</v>
+          </cell>
+          <cell r="W54">
+            <v>12.999999999999996</v>
+          </cell>
+          <cell r="X54">
+            <v>15.599999999999994</v>
+          </cell>
         </row>
         <row r="55">
           <cell r="C55">
@@ -618,6 +1277,21 @@
           <cell r="S55">
             <v>8463</v>
           </cell>
+          <cell r="T55">
+            <v>5.299999999999998</v>
+          </cell>
+          <cell r="U55">
+            <v>7.9499999999999975</v>
+          </cell>
+          <cell r="V55">
+            <v>10.599999999999996</v>
+          </cell>
+          <cell r="W55">
+            <v>13.249999999999995</v>
+          </cell>
+          <cell r="X55">
+            <v>15.899999999999995</v>
+          </cell>
         </row>
         <row r="56">
           <cell r="C56">
@@ -626,6 +1300,21 @@
           <cell r="S56">
             <v>8983</v>
           </cell>
+          <cell r="T56">
+            <v>5.3999999999999977</v>
+          </cell>
+          <cell r="U56">
+            <v>8.0999999999999961</v>
+          </cell>
+          <cell r="V56">
+            <v>10.799999999999995</v>
+          </cell>
+          <cell r="W56">
+            <v>13.499999999999995</v>
+          </cell>
+          <cell r="X56">
+            <v>16.199999999999992</v>
+          </cell>
         </row>
         <row r="57">
           <cell r="C57">
@@ -634,6 +1323,21 @@
           <cell r="S57">
             <v>9583</v>
           </cell>
+          <cell r="T57">
+            <v>5.4999999999999973</v>
+          </cell>
+          <cell r="U57">
+            <v>8.2499999999999964</v>
+          </cell>
+          <cell r="V57">
+            <v>10.999999999999995</v>
+          </cell>
+          <cell r="W57">
+            <v>13.749999999999993</v>
+          </cell>
+          <cell r="X57">
+            <v>16.499999999999993</v>
+          </cell>
         </row>
         <row r="58">
           <cell r="C58">
@@ -642,6 +1346,21 @@
           <cell r="S58">
             <v>10263</v>
           </cell>
+          <cell r="T58">
+            <v>5.599999999999997</v>
+          </cell>
+          <cell r="U58">
+            <v>8.399999999999995</v>
+          </cell>
+          <cell r="V58">
+            <v>11.199999999999994</v>
+          </cell>
+          <cell r="W58">
+            <v>13.999999999999993</v>
+          </cell>
+          <cell r="X58">
+            <v>16.79999999999999</v>
+          </cell>
         </row>
         <row r="59">
           <cell r="C59">
@@ -650,6 +1369,21 @@
           <cell r="S59">
             <v>11023</v>
           </cell>
+          <cell r="T59">
+            <v>5.6999999999999966</v>
+          </cell>
+          <cell r="U59">
+            <v>8.5499999999999954</v>
+          </cell>
+          <cell r="V59">
+            <v>11.399999999999993</v>
+          </cell>
+          <cell r="W59">
+            <v>14.249999999999991</v>
+          </cell>
+          <cell r="X59">
+            <v>17.099999999999991</v>
+          </cell>
         </row>
         <row r="60">
           <cell r="C60">
@@ -658,6 +1392,21 @@
           <cell r="S60">
             <v>11863</v>
           </cell>
+          <cell r="T60">
+            <v>5.7999999999999963</v>
+          </cell>
+          <cell r="U60">
+            <v>8.699999999999994</v>
+          </cell>
+          <cell r="V60">
+            <v>11.599999999999993</v>
+          </cell>
+          <cell r="W60">
+            <v>14.499999999999991</v>
+          </cell>
+          <cell r="X60">
+            <v>17.399999999999988</v>
+          </cell>
         </row>
         <row r="61">
           <cell r="C61">
@@ -666,6 +1415,21 @@
           <cell r="S61">
             <v>12043</v>
           </cell>
+          <cell r="T61">
+            <v>5.8999999999999959</v>
+          </cell>
+          <cell r="U61">
+            <v>8.8499999999999943</v>
+          </cell>
+          <cell r="V61">
+            <v>11.799999999999992</v>
+          </cell>
+          <cell r="W61">
+            <v>14.749999999999989</v>
+          </cell>
+          <cell r="X61">
+            <v>17.699999999999989</v>
+          </cell>
         </row>
         <row r="62">
           <cell r="C62">
@@ -674,6 +1438,21 @@
           <cell r="S62">
             <v>12268</v>
           </cell>
+          <cell r="T62">
+            <v>5.9999999999999956</v>
+          </cell>
+          <cell r="U62">
+            <v>8.9999999999999929</v>
+          </cell>
+          <cell r="V62">
+            <v>11.999999999999991</v>
+          </cell>
+          <cell r="W62">
+            <v>14.999999999999989</v>
+          </cell>
+          <cell r="X62">
+            <v>17.999999999999986</v>
+          </cell>
         </row>
         <row r="63">
           <cell r="C63">
@@ -682,6 +1461,21 @@
           <cell r="S63">
             <v>12583</v>
           </cell>
+          <cell r="T63">
+            <v>6.0999999999999952</v>
+          </cell>
+          <cell r="U63">
+            <v>9.1499999999999932</v>
+          </cell>
+          <cell r="V63">
+            <v>12.19999999999999</v>
+          </cell>
+          <cell r="W63">
+            <v>15.249999999999988</v>
+          </cell>
+          <cell r="X63">
+            <v>18.299999999999986</v>
+          </cell>
         </row>
         <row r="64">
           <cell r="C64">
@@ -690,6 +1484,21 @@
           <cell r="S64">
             <v>12988</v>
           </cell>
+          <cell r="T64">
+            <v>6.1999999999999948</v>
+          </cell>
+          <cell r="U64">
+            <v>9.2999999999999918</v>
+          </cell>
+          <cell r="V64">
+            <v>12.39999999999999</v>
+          </cell>
+          <cell r="W64">
+            <v>15.499999999999988</v>
+          </cell>
+          <cell r="X64">
+            <v>18.599999999999984</v>
+          </cell>
         </row>
         <row r="65">
           <cell r="C65">
@@ -698,6 +1507,21 @@
           <cell r="S65">
             <v>13483</v>
           </cell>
+          <cell r="T65">
+            <v>6.2999999999999945</v>
+          </cell>
+          <cell r="U65">
+            <v>9.4499999999999922</v>
+          </cell>
+          <cell r="V65">
+            <v>12.599999999999989</v>
+          </cell>
+          <cell r="W65">
+            <v>15.749999999999986</v>
+          </cell>
+          <cell r="X65">
+            <v>18.899999999999984</v>
+          </cell>
         </row>
         <row r="66">
           <cell r="C66">
@@ -706,6 +1530,21 @@
           <cell r="S66">
             <v>14068</v>
           </cell>
+          <cell r="T66">
+            <v>6.3999999999999941</v>
+          </cell>
+          <cell r="U66">
+            <v>9.5999999999999908</v>
+          </cell>
+          <cell r="V66">
+            <v>12.799999999999988</v>
+          </cell>
+          <cell r="W66">
+            <v>15.999999999999986</v>
+          </cell>
+          <cell r="X66">
+            <v>19.199999999999982</v>
+          </cell>
         </row>
         <row r="67">
           <cell r="C67">
@@ -714,6 +1553,21 @@
           <cell r="S67">
             <v>14743</v>
           </cell>
+          <cell r="T67">
+            <v>6.4999999999999938</v>
+          </cell>
+          <cell r="U67">
+            <v>9.7499999999999911</v>
+          </cell>
+          <cell r="V67">
+            <v>12.999999999999988</v>
+          </cell>
+          <cell r="W67">
+            <v>16.249999999999986</v>
+          </cell>
+          <cell r="X67">
+            <v>19.499999999999982</v>
+          </cell>
         </row>
         <row r="68">
           <cell r="C68">
@@ -722,6 +1576,21 @@
           <cell r="S68">
             <v>15508</v>
           </cell>
+          <cell r="T68">
+            <v>6.5999999999999934</v>
+          </cell>
+          <cell r="U68">
+            <v>9.8999999999999897</v>
+          </cell>
+          <cell r="V68">
+            <v>13.199999999999987</v>
+          </cell>
+          <cell r="W68">
+            <v>16.499999999999982</v>
+          </cell>
+          <cell r="X68">
+            <v>19.799999999999979</v>
+          </cell>
         </row>
         <row r="69">
           <cell r="C69">
@@ -730,6 +1599,21 @@
           <cell r="S69">
             <v>16363</v>
           </cell>
+          <cell r="T69">
+            <v>6.6999999999999931</v>
+          </cell>
+          <cell r="U69">
+            <v>10.04999999999999</v>
+          </cell>
+          <cell r="V69">
+            <v>13.399999999999986</v>
+          </cell>
+          <cell r="W69">
+            <v>16.749999999999982</v>
+          </cell>
+          <cell r="X69">
+            <v>20.09999999999998</v>
+          </cell>
         </row>
         <row r="70">
           <cell r="C70">
@@ -738,10 +1622,25 @@
           <cell r="S70">
             <v>17308</v>
           </cell>
+          <cell r="T70">
+            <v>6.7999999999999927</v>
+          </cell>
+          <cell r="U70">
+            <v>10.199999999999989</v>
+          </cell>
+          <cell r="V70">
+            <v>13.599999999999985</v>
+          </cell>
+          <cell r="W70">
+            <v>16.999999999999982</v>
+          </cell>
+          <cell r="X70">
+            <v>20.399999999999977</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1010,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,12 +1920,15 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1034,7 +1936,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1947,10 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1958,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1058,7 +1969,10 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1075,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DBFB0D-74EA-4B0B-821D-FDC2E6A24B78}">
-  <dimension ref="B3:I13"/>
+  <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1086,39 +2000,54 @@
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1129,21 +2058,29 @@
         <v>13</v>
       </c>
       <c r="E4">
+        <f>INDEX(任务类型!A$2:A$6,MATCH(任务内容!C4,任务类型!B$2:B$6,))</f>
         <v>1</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>120</v>
       </c>
-      <c r="G4">
-        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(E4,[1]等级经验!$C$12:$C$70))</f>
-        <v>0</v>
-      </c>
       <c r="H4">
+        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(F4,[1]等级经验!$C$12:$C$70))</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C4,任务类型!B$2:B$7,))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f>FLOOR(INDEX([1]等级经验!$T$12:$X$70,F4,E4)*G4,5)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1154,21 +2091,29 @@
         <v>11</v>
       </c>
       <c r="E5">
+        <f>INDEX(任务类型!A$2:A$6,MATCH(任务内容!C5,任务类型!B$2:B$6,))</f>
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>485</v>
       </c>
-      <c r="G5">
-        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(E5,[1]等级经验!$C$12:$C$70))</f>
-        <v>0</v>
-      </c>
       <c r="H5">
+        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(F5,[1]等级经验!$C$12:$C$70))</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C5,任务类型!B$2:B$7,))</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <f>FLOOR(INDEX([1]等级经验!$T$12:$X$70,F5,E5)*G5,5)</f>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1179,21 +2124,29 @@
         <v>14</v>
       </c>
       <c r="E6">
+        <f>INDEX(任务类型!A$2:A$6,MATCH(任务内容!C6,任务类型!B$2:B$6,))</f>
         <v>1</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>240</v>
       </c>
-      <c r="G6">
-        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(E6,[1]等级经验!$C$12:$C$70))</f>
-        <v>0</v>
-      </c>
       <c r="H6">
+        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(F6,[1]等级经验!$C$12:$C$70))</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C6,任务类型!B$2:B$7,))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f>FLOOR(INDEX([1]等级经验!$T$12:$X$70,F6,E6)*G6,5)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1204,21 +2157,29 @@
         <v>12</v>
       </c>
       <c r="E7">
+        <f>INDEX(任务类型!A$2:A$6,MATCH(任务内容!C7,任务类型!B$2:B$6,))</f>
         <v>2</v>
       </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>235</v>
       </c>
-      <c r="G7">
-        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(E7,[1]等级经验!$C$12:$C$70))</f>
-        <v>0</v>
-      </c>
       <c r="H7">
+        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(F7,[1]等级经验!$C$12:$C$70))</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C7,任务类型!B$2:B$7,))</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f>FLOOR(INDEX([1]等级经验!$T$12:$X$70,F7,E7)*G7,5)</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1229,21 +2190,29 @@
         <v>15</v>
       </c>
       <c r="E8">
+        <f>INDEX(任务类型!A$2:A$6,MATCH(任务内容!C8,任务类型!B$2:B$6,))</f>
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>200</v>
       </c>
-      <c r="G8">
-        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(E8,[1]等级经验!$C$12:$C$70))</f>
-        <v>0</v>
-      </c>
       <c r="H8">
+        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(F8,[1]等级经验!$C$12:$C$70))</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C8,任务类型!B$2:B$7,))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <f>FLOOR(INDEX([1]等级经验!$T$12:$X$70,F8,E8)*G8,5)</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1254,21 +2223,29 @@
         <v>17</v>
       </c>
       <c r="E9">
+        <f>INDEX(任务类型!A$2:A$6,MATCH(任务内容!C9,任务类型!B$2:B$6,))</f>
+        <v>4</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>425</v>
       </c>
-      <c r="G9">
-        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(E9,[1]等级经验!$C$12:$C$70))</f>
-        <v>0</v>
-      </c>
       <c r="H9">
+        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(F9,[1]等级经验!$C$12:$C$70))</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C9,任务类型!B$2:B$7,))</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f>FLOOR(INDEX([1]等级经验!$T$12:$X$70,F9,E9)*G9,5)</f>
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>6</v>
       </c>
@@ -1279,21 +2256,29 @@
         <v>16</v>
       </c>
       <c r="E10">
+        <f>INDEX(任务类型!A$2:A$6,MATCH(任务内容!C10,任务类型!B$2:B$6,))</f>
         <v>3</v>
       </c>
       <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
         <v>275</v>
       </c>
-      <c r="G10">
-        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(E10,[1]等级经验!$C$12:$C$70))</f>
-        <v>0</v>
-      </c>
       <c r="H10">
+        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(F10,[1]等级经验!$C$12:$C$70))</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C10,任务类型!B$2:B$7,))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <f>FLOOR(INDEX([1]等级经验!$T$12:$X$70,F10,E10)*G10,5)</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1304,21 +2289,29 @@
         <v>19</v>
       </c>
       <c r="E11">
+        <f>INDEX(任务类型!A$2:A$6,MATCH(任务内容!C11,任务类型!B$2:B$6,))</f>
+        <v>5</v>
+      </c>
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>600</v>
       </c>
-      <c r="G11">
-        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(E11,[1]等级经验!$C$12:$C$70))</f>
-        <v>0</v>
-      </c>
       <c r="H11">
+        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(F11,[1]等级经验!$C$12:$C$70))</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C11,任务类型!B$2:B$7,))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <f>FLOOR(INDEX([1]等级经验!$T$12:$X$70,F11,E11)*G11,5)</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>8</v>
       </c>
@@ -1329,21 +2322,29 @@
         <v>18</v>
       </c>
       <c r="E12">
+        <f>INDEX(任务类型!A$2:A$6,MATCH(任务内容!C12,任务类型!B$2:B$6,))</f>
         <v>4</v>
       </c>
       <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
         <v>360</v>
       </c>
-      <c r="G12">
-        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(E12,[1]等级经验!$C$12:$C$70))</f>
-        <v>0</v>
-      </c>
       <c r="H12">
+        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(F12,[1]等级经验!$C$12:$C$70))</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C12,任务类型!B$2:B$7,))</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <f>FLOOR(INDEX([1]等级经验!$T$12:$X$70,F12,E12)*G12,5)</f>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1354,23 +2355,32 @@
         <v>20</v>
       </c>
       <c r="E13">
+        <f>INDEX(任务类型!A$2:A$6,MATCH(任务内容!C13,任务类型!B$2:B$6,))</f>
+        <v>5</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>530</v>
       </c>
-      <c r="G13">
-        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(E13,[1]等级经验!$C$12:$C$70))</f>
-        <v>0</v>
-      </c>
       <c r="H13">
+        <f>INDEX([1]等级经验!$S$12:$S$70,MATCH(F13,[1]等级经验!$C$12:$C$70))</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
         <f>INDEX(任务类型!C$2:C$7,MATCH(任务内容!C13,任务类型!B$2:B$7,))</f>
         <v>3</v>
+      </c>
+      <c r="J13">
+        <f>FLOOR(INDEX([1]等级经验!$T$12:$X$70,F13,E13)*G13,5)</f>
+        <v>2065</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1409,23 +2419,23 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B3)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B3)</f>
         <v>360</v>
       </c>
       <c r="D3">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B3)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B3)</f>
         <v>485</v>
       </c>
       <c r="E3">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B3)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B3)</f>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B3)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B3)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B3)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1434,23 +2444,23 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B4)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B4)</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B4)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B4)</f>
         <v>235</v>
       </c>
       <c r="E4">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B4)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B4)</f>
         <v>200</v>
       </c>
       <c r="F4">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B4)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B4)</f>
         <v>425</v>
       </c>
       <c r="G4">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B4)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B4)</f>
         <v>0</v>
       </c>
     </row>
@@ -1459,23 +2469,23 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B5)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B5)</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B5)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B5)</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B5)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B5)</f>
         <v>275</v>
       </c>
       <c r="F5">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B5)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B5)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B5)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B5)</f>
         <v>600</v>
       </c>
     </row>
@@ -1484,23 +2494,23 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B6)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B6)</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B6)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B6)</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B6)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B6)</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B6)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B6)</f>
         <v>360</v>
       </c>
       <c r="G6">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B6)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B6)</f>
         <v>530</v>
       </c>
     </row>
@@ -1509,23 +2519,23 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B7)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B7)</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B7)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B7)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B7)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B7)</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B7)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B7)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B7)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B7)</f>
         <v>0</v>
       </c>
     </row>
@@ -1534,23 +2544,23 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B8)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B8)</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B8)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B8)</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B8)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B8)</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B8)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B8)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B8)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B8)</f>
         <v>0</v>
       </c>
     </row>
@@ -1559,23 +2569,23 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B9)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B9)</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B9)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B9)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B9)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B9)</f>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B9)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B9)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B9)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B9)</f>
         <v>0</v>
       </c>
     </row>
@@ -1584,23 +2594,23 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B10)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B10)</f>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B10)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B10)</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B10)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B10)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B10)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B10)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B10)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B10)</f>
         <v>0</v>
       </c>
     </row>
@@ -1609,23 +2619,23 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B11)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B11)</f>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B11)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B11)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B11)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B11)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B11)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B11)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B11)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B11)</f>
         <v>0</v>
       </c>
     </row>
@@ -1634,23 +2644,23 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B12)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B12)</f>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B12)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B12)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B12)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B12)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B12)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B12)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B12)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B12)</f>
         <v>0</v>
       </c>
     </row>
@@ -1659,23 +2669,23 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B13)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B13)</f>
         <v>0</v>
       </c>
       <c r="D13">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B13)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B13)</f>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B13)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B13)</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B13)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B13)</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B13)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B13)</f>
         <v>0</v>
       </c>
     </row>
@@ -1684,23 +2694,23 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B14)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B14)</f>
         <v>0</v>
       </c>
       <c r="D14">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B14)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B14)</f>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B14)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B14)</f>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B14)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B14)</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B14)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B14)</f>
         <v>0</v>
       </c>
     </row>
@@ -1709,23 +2719,23 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B15)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B15)</f>
         <v>0</v>
       </c>
       <c r="D15">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B15)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B15)</f>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B15)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B15)</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B15)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B15)</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B15)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B15)</f>
         <v>0</v>
       </c>
     </row>
@@ -1734,23 +2744,23 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B16)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B16)</f>
         <v>0</v>
       </c>
       <c r="D16">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B16)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B16)</f>
         <v>0</v>
       </c>
       <c r="E16">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B16)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B16)</f>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B16)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B16)</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B16)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B16)</f>
         <v>0</v>
       </c>
     </row>
@@ -1759,23 +2769,23 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B17)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B17)</f>
         <v>0</v>
       </c>
       <c r="D17">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B17)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B17)</f>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B17)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B17)</f>
         <v>0</v>
       </c>
       <c r="F17">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B17)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B17)</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B17)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B17)</f>
         <v>0</v>
       </c>
     </row>
@@ -1784,23 +2794,23 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B18)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B18)</f>
         <v>0</v>
       </c>
       <c r="D18">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B18)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B18)</f>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B18)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B18)</f>
         <v>0</v>
       </c>
       <c r="F18">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B18)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B18)</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B18)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B18)</f>
         <v>0</v>
       </c>
     </row>
@@ -1809,23 +2819,23 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B19)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B19)</f>
         <v>0</v>
       </c>
       <c r="D19">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B19)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B19)</f>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B19)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B19)</f>
         <v>0</v>
       </c>
       <c r="F19">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B19)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B19)</f>
         <v>0</v>
       </c>
       <c r="G19">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B19)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B19)</f>
         <v>0</v>
       </c>
     </row>
@@ -1834,23 +2844,23 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B20)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B20)</f>
         <v>0</v>
       </c>
       <c r="D20">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B20)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B20)</f>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B20)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B20)</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B20)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B20)</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B20)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B20)</f>
         <v>0</v>
       </c>
     </row>
@@ -1859,23 +2869,23 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B21)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B21)</f>
         <v>0</v>
       </c>
       <c r="D21">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B21)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B21)</f>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B21)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B21)</f>
         <v>0</v>
       </c>
       <c r="F21">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B21)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B21)</f>
         <v>0</v>
       </c>
       <c r="G21">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B21)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B21)</f>
         <v>0</v>
       </c>
     </row>
@@ -1884,23 +2894,23 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B22)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B22)</f>
         <v>0</v>
       </c>
       <c r="D22">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B22)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B22)</f>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B22)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B22)</f>
         <v>0</v>
       </c>
       <c r="F22">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B22)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B22)</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B22)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B22)</f>
         <v>0</v>
       </c>
     </row>
@@ -1909,23 +2919,23 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B23)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B23)</f>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B23)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B23)</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B23)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B23)</f>
         <v>0</v>
       </c>
       <c r="F23">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B23)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B23)</f>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B23)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B23)</f>
         <v>0</v>
       </c>
     </row>
@@ -1934,23 +2944,23 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B24)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B24)</f>
         <v>0</v>
       </c>
       <c r="D24">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B24)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B24)</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B24)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B24)</f>
         <v>0</v>
       </c>
       <c r="F24">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B24)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B24)</f>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B24)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B24)</f>
         <v>0</v>
       </c>
     </row>
@@ -1959,23 +2969,23 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B25)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B25)</f>
         <v>0</v>
       </c>
       <c r="D25">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B25)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B25)</f>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B25)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B25)</f>
         <v>0</v>
       </c>
       <c r="F25">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B25)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B25)</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B25)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B25)</f>
         <v>0</v>
       </c>
     </row>
@@ -1984,23 +2994,23 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B26)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B26)</f>
         <v>0</v>
       </c>
       <c r="D26">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B26)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B26)</f>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B26)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B26)</f>
         <v>0</v>
       </c>
       <c r="F26">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B26)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B26)</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B26)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B26)</f>
         <v>0</v>
       </c>
     </row>
@@ -2009,23 +3019,23 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B27)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B27)</f>
         <v>0</v>
       </c>
       <c r="D27">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B27)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B27)</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B27)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B27)</f>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B27)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B27)</f>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B27)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B27)</f>
         <v>0</v>
       </c>
     </row>
@@ -2034,23 +3044,23 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B28)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B28)</f>
         <v>0</v>
       </c>
       <c r="D28">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B28)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B28)</f>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B28)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B28)</f>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B28)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B28)</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B28)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B28)</f>
         <v>0</v>
       </c>
     </row>
@@ -2059,23 +3069,23 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B29)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B29)</f>
         <v>0</v>
       </c>
       <c r="D29">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B29)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B29)</f>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B29)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B29)</f>
         <v>0</v>
       </c>
       <c r="F29">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B29)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B29)</f>
         <v>0</v>
       </c>
       <c r="G29">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B29)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B29)</f>
         <v>0</v>
       </c>
     </row>
@@ -2084,23 +3094,23 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B30)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B30)</f>
         <v>0</v>
       </c>
       <c r="D30">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B30)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B30)</f>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B30)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B30)</f>
         <v>0</v>
       </c>
       <c r="F30">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B30)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B30)</f>
         <v>0</v>
       </c>
       <c r="G30">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B30)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B30)</f>
         <v>0</v>
       </c>
     </row>
@@ -2109,23 +3119,23 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B31)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B31)</f>
         <v>0</v>
       </c>
       <c r="D31">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B31)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B31)</f>
         <v>0</v>
       </c>
       <c r="E31">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B31)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B31)</f>
         <v>0</v>
       </c>
       <c r="F31">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B31)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B31)</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B31)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B31)</f>
         <v>0</v>
       </c>
     </row>
@@ -2134,23 +3144,23 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B32)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B32)</f>
         <v>0</v>
       </c>
       <c r="D32">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B32)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B32)</f>
         <v>0</v>
       </c>
       <c r="E32">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B32)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B32)</f>
         <v>0</v>
       </c>
       <c r="F32">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B32)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B32)</f>
         <v>0</v>
       </c>
       <c r="G32">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B32)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B32)</f>
         <v>0</v>
       </c>
     </row>
@@ -2159,23 +3169,23 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B33)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B33)</f>
         <v>0</v>
       </c>
       <c r="D33">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B33)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B33)</f>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B33)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B33)</f>
         <v>0</v>
       </c>
       <c r="F33">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B33)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B33)</f>
         <v>0</v>
       </c>
       <c r="G33">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B33)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B33)</f>
         <v>0</v>
       </c>
     </row>
@@ -2184,23 +3194,23 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B34)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B34)</f>
         <v>0</v>
       </c>
       <c r="D34">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B34)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B34)</f>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B34)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B34)</f>
         <v>0</v>
       </c>
       <c r="F34">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B34)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B34)</f>
         <v>0</v>
       </c>
       <c r="G34">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B34)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B34)</f>
         <v>0</v>
       </c>
     </row>
@@ -2209,23 +3219,23 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B35)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B35)</f>
         <v>0</v>
       </c>
       <c r="D35">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B35)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B35)</f>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B35)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B35)</f>
         <v>0</v>
       </c>
       <c r="F35">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B35)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B35)</f>
         <v>0</v>
       </c>
       <c r="G35">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B35)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B35)</f>
         <v>0</v>
       </c>
     </row>
@@ -2234,23 +3244,23 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B36)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B36)</f>
         <v>0</v>
       </c>
       <c r="D36">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B36)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B36)</f>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B36)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B36)</f>
         <v>0</v>
       </c>
       <c r="F36">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B36)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B36)</f>
         <v>0</v>
       </c>
       <c r="G36">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B36)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B36)</f>
         <v>0</v>
       </c>
     </row>
@@ -2259,23 +3269,23 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B37)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B37)</f>
         <v>0</v>
       </c>
       <c r="D37">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B37)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B37)</f>
         <v>0</v>
       </c>
       <c r="E37">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B37)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B37)</f>
         <v>0</v>
       </c>
       <c r="F37">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B37)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B37)</f>
         <v>0</v>
       </c>
       <c r="G37">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B37)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B37)</f>
         <v>0</v>
       </c>
     </row>
@@ -2284,23 +3294,23 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B38)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B38)</f>
         <v>0</v>
       </c>
       <c r="D38">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B38)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B38)</f>
         <v>0</v>
       </c>
       <c r="E38">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B38)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B38)</f>
         <v>0</v>
       </c>
       <c r="F38">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B38)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B38)</f>
         <v>0</v>
       </c>
       <c r="G38">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B38)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B38)</f>
         <v>0</v>
       </c>
     </row>
@@ -2309,23 +3319,23 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B39)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B39)</f>
         <v>0</v>
       </c>
       <c r="D39">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B39)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B39)</f>
         <v>0</v>
       </c>
       <c r="E39">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B39)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B39)</f>
         <v>0</v>
       </c>
       <c r="F39">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B39)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B39)</f>
         <v>0</v>
       </c>
       <c r="G39">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B39)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B39)</f>
         <v>0</v>
       </c>
     </row>
@@ -2334,23 +3344,23 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B40)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B40)</f>
         <v>0</v>
       </c>
       <c r="D40">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B40)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B40)</f>
         <v>0</v>
       </c>
       <c r="E40">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B40)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B40)</f>
         <v>0</v>
       </c>
       <c r="F40">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B40)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B40)</f>
         <v>0</v>
       </c>
       <c r="G40">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B40)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B40)</f>
         <v>0</v>
       </c>
     </row>
@@ -2359,23 +3369,23 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B41)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B41)</f>
         <v>0</v>
       </c>
       <c r="D41">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B41)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B41)</f>
         <v>0</v>
       </c>
       <c r="E41">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B41)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B41)</f>
         <v>0</v>
       </c>
       <c r="F41">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B41)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B41)</f>
         <v>0</v>
       </c>
       <c r="G41">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B41)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B41)</f>
         <v>0</v>
       </c>
     </row>
@@ -2384,23 +3394,23 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B42)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B42)</f>
         <v>0</v>
       </c>
       <c r="D42">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B42)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B42)</f>
         <v>0</v>
       </c>
       <c r="E42">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B42)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B42)</f>
         <v>0</v>
       </c>
       <c r="F42">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B42)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B42)</f>
         <v>0</v>
       </c>
       <c r="G42">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B42)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B42)</f>
         <v>0</v>
       </c>
     </row>
@@ -2409,23 +3419,23 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B43)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B43)</f>
         <v>0</v>
       </c>
       <c r="D43">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B43)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B43)</f>
         <v>0</v>
       </c>
       <c r="E43">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B43)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B43)</f>
         <v>0</v>
       </c>
       <c r="F43">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B43)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B43)</f>
         <v>0</v>
       </c>
       <c r="G43">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B43)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B43)</f>
         <v>0</v>
       </c>
     </row>
@@ -2434,23 +3444,23 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B44)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B44)</f>
         <v>0</v>
       </c>
       <c r="D44">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B44)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B44)</f>
         <v>0</v>
       </c>
       <c r="E44">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B44)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B44)</f>
         <v>0</v>
       </c>
       <c r="F44">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B44)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B44)</f>
         <v>0</v>
       </c>
       <c r="G44">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B44)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B44)</f>
         <v>0</v>
       </c>
     </row>
@@ -2459,23 +3469,23 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B45)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B45)</f>
         <v>0</v>
       </c>
       <c r="D45">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B45)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B45)</f>
         <v>0</v>
       </c>
       <c r="E45">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B45)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B45)</f>
         <v>0</v>
       </c>
       <c r="F45">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B45)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B45)</f>
         <v>0</v>
       </c>
       <c r="G45">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B45)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B45)</f>
         <v>0</v>
       </c>
     </row>
@@ -2484,23 +3494,23 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B46)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B46)</f>
         <v>0</v>
       </c>
       <c r="D46">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B46)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B46)</f>
         <v>0</v>
       </c>
       <c r="E46">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B46)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B46)</f>
         <v>0</v>
       </c>
       <c r="F46">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B46)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B46)</f>
         <v>0</v>
       </c>
       <c r="G46">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B46)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B46)</f>
         <v>0</v>
       </c>
     </row>
@@ -2509,23 +3519,23 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B47)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B47)</f>
         <v>0</v>
       </c>
       <c r="D47">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B47)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B47)</f>
         <v>0</v>
       </c>
       <c r="E47">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B47)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B47)</f>
         <v>0</v>
       </c>
       <c r="F47">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B47)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B47)</f>
         <v>0</v>
       </c>
       <c r="G47">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B47)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B47)</f>
         <v>0</v>
       </c>
     </row>
@@ -2534,23 +3544,23 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B48)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B48)</f>
         <v>0</v>
       </c>
       <c r="D48">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B48)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B48)</f>
         <v>0</v>
       </c>
       <c r="E48">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B48)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B48)</f>
         <v>0</v>
       </c>
       <c r="F48">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B48)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B48)</f>
         <v>0</v>
       </c>
       <c r="G48">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B48)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B48)</f>
         <v>0</v>
       </c>
     </row>
@@ -2559,23 +3569,23 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B49)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B49)</f>
         <v>0</v>
       </c>
       <c r="D49">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B49)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B49)</f>
         <v>0</v>
       </c>
       <c r="E49">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B49)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B49)</f>
         <v>0</v>
       </c>
       <c r="F49">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B49)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B49)</f>
         <v>0</v>
       </c>
       <c r="G49">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B49)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B49)</f>
         <v>0</v>
       </c>
     </row>
@@ -2584,23 +3594,23 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B50)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B50)</f>
         <v>0</v>
       </c>
       <c r="D50">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B50)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B50)</f>
         <v>0</v>
       </c>
       <c r="E50">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B50)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B50)</f>
         <v>0</v>
       </c>
       <c r="F50">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B50)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B50)</f>
         <v>0</v>
       </c>
       <c r="G50">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B50)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B50)</f>
         <v>0</v>
       </c>
     </row>
@@ -2609,23 +3619,23 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B51)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B51)</f>
         <v>0</v>
       </c>
       <c r="D51">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B51)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B51)</f>
         <v>0</v>
       </c>
       <c r="E51">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B51)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B51)</f>
         <v>0</v>
       </c>
       <c r="F51">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B51)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B51)</f>
         <v>0</v>
       </c>
       <c r="G51">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B51)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B51)</f>
         <v>0</v>
       </c>
     </row>
@@ -2634,23 +3644,23 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B52)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B52)</f>
         <v>0</v>
       </c>
       <c r="D52">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B52)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B52)</f>
         <v>0</v>
       </c>
       <c r="E52">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B52)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B52)</f>
         <v>0</v>
       </c>
       <c r="F52">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B52)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B52)</f>
         <v>0</v>
       </c>
       <c r="G52">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B52)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B52)</f>
         <v>0</v>
       </c>
     </row>
@@ -2659,23 +3669,23 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B53)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B53)</f>
         <v>0</v>
       </c>
       <c r="D53">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B53)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B53)</f>
         <v>0</v>
       </c>
       <c r="E53">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B53)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B53)</f>
         <v>0</v>
       </c>
       <c r="F53">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B53)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B53)</f>
         <v>0</v>
       </c>
       <c r="G53">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B53)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B53)</f>
         <v>0</v>
       </c>
     </row>
@@ -2684,23 +3694,23 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B54)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B54)</f>
         <v>0</v>
       </c>
       <c r="D54">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B54)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B54)</f>
         <v>0</v>
       </c>
       <c r="E54">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B54)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B54)</f>
         <v>0</v>
       </c>
       <c r="F54">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B54)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B54)</f>
         <v>0</v>
       </c>
       <c r="G54">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B54)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B54)</f>
         <v>0</v>
       </c>
     </row>
@@ -2709,23 +3719,23 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B55)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B55)</f>
         <v>0</v>
       </c>
       <c r="D55">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B55)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B55)</f>
         <v>0</v>
       </c>
       <c r="E55">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B55)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B55)</f>
         <v>0</v>
       </c>
       <c r="F55">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B55)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B55)</f>
         <v>0</v>
       </c>
       <c r="G55">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B55)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B55)</f>
         <v>0</v>
       </c>
     </row>
@@ -2734,23 +3744,23 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B56)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B56)</f>
         <v>0</v>
       </c>
       <c r="D56">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B56)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B56)</f>
         <v>0</v>
       </c>
       <c r="E56">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B56)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B56)</f>
         <v>0</v>
       </c>
       <c r="F56">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B56)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B56)</f>
         <v>0</v>
       </c>
       <c r="G56">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B56)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B56)</f>
         <v>0</v>
       </c>
     </row>
@@ -2759,23 +3769,23 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B57)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B57)</f>
         <v>0</v>
       </c>
       <c r="D57">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B57)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B57)</f>
         <v>0</v>
       </c>
       <c r="E57">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B57)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B57)</f>
         <v>0</v>
       </c>
       <c r="F57">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B57)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B57)</f>
         <v>0</v>
       </c>
       <c r="G57">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B57)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B57)</f>
         <v>0</v>
       </c>
     </row>
@@ -2784,23 +3794,23 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B58)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B58)</f>
         <v>0</v>
       </c>
       <c r="D58">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B58)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B58)</f>
         <v>0</v>
       </c>
       <c r="E58">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B58)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B58)</f>
         <v>0</v>
       </c>
       <c r="F58">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B58)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B58)</f>
         <v>0</v>
       </c>
       <c r="G58">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B58)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B58)</f>
         <v>0</v>
       </c>
     </row>
@@ -2809,23 +3819,23 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B59)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B59)</f>
         <v>0</v>
       </c>
       <c r="D59">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B59)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B59)</f>
         <v>0</v>
       </c>
       <c r="E59">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B59)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B59)</f>
         <v>0</v>
       </c>
       <c r="F59">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B59)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B59)</f>
         <v>0</v>
       </c>
       <c r="G59">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B59)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B59)</f>
         <v>0</v>
       </c>
     </row>
@@ -2834,23 +3844,23 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B60)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B60)</f>
         <v>0</v>
       </c>
       <c r="D60">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B60)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B60)</f>
         <v>0</v>
       </c>
       <c r="E60">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B60)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B60)</f>
         <v>0</v>
       </c>
       <c r="F60">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B60)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B60)</f>
         <v>0</v>
       </c>
       <c r="G60">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B60)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B60)</f>
         <v>0</v>
       </c>
     </row>
@@ -2859,23 +3869,23 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B61)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B61)</f>
         <v>0</v>
       </c>
       <c r="D61">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B61)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B61)</f>
         <v>0</v>
       </c>
       <c r="E61">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B61)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B61)</f>
         <v>0</v>
       </c>
       <c r="F61">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B61)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B61)</f>
         <v>0</v>
       </c>
       <c r="G61">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B61)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B61)</f>
         <v>0</v>
       </c>
     </row>
@@ -2884,23 +3894,23 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$E$4:$E$13,任务时间分布!$B62)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!C$2,任务内容!$F$4:$F$13,任务时间分布!$B62)</f>
         <v>0</v>
       </c>
       <c r="D62">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$E$4:$E$13,任务时间分布!$B62)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!D$2,任务内容!$F$4:$F$13,任务时间分布!$B62)</f>
         <v>0</v>
       </c>
       <c r="E62">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$E$4:$E$13,任务时间分布!$B62)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!E$2,任务内容!$F$4:$F$13,任务时间分布!$B62)</f>
         <v>0</v>
       </c>
       <c r="F62">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$E$4:$E$13,任务时间分布!$B62)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!F$2,任务内容!$F$4:$F$13,任务时间分布!$B62)</f>
         <v>0</v>
       </c>
       <c r="G62">
-        <f>SUMIFS(任务内容!$F$4:$F$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$E$4:$E$13,任务时间分布!$B62)</f>
+        <f>SUMIFS(任务内容!$G$4:$G$13,任务内容!$C$4:$C$13,任务时间分布!G$2,任务内容!$F$4:$F$13,任务时间分布!$B62)</f>
         <v>0</v>
       </c>
     </row>
